--- a/data/hotels_by_city/Houston/Houston_shard_610.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_610.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d277895-Reviews-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Studio-6-Houston-Clear-Lake.h966134.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1074 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r456034565-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>277895</t>
+  </si>
+  <si>
+    <t>456034565</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Bring your bug spray</t>
+  </si>
+  <si>
+    <t>Room crawling with baby roaches. All over bed, kitchenette and bathroom. Long night smashing bugs!Refunded my money after I threw a fit!Just really wouldn't stay there unless you have to!Ended up with half a dozen bites when I got up at 3am to fight the bugs!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r452839359-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452839359</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Studio 6 Clear Lake needs some work</t>
+  </si>
+  <si>
+    <t>Lady at front desk (didn't catch her name) needs to learn to speak up. Room 228 was cleanish but VERY cramped. Should have only had a twin size bed. Not a full size bed. There might have been a picture on the wall at some time. Only evidence was a couple pieces of double-sided sticky tape on wall. Fridge &amp; microwave were old &amp; rusty. Room phone had almost all buttons missing. Nightstand lampshade was falling apart. Cabinet/drawers for TV &amp; clothes was beat up &amp; scratched. One of the drawers had been fixed with screws visible on front of drawer. One of the pull handles on sliding door to close in front of TV was missing. Coffee maker was old &amp; yucky, no pot. There were no coffee cups. Only one tiny little pot for cooking. Lower kitchen cabinet doors stayed slightly open &amp; had grease residue. I guess this is what we get for asking to check in early &amp; use 10% email discount for online reservation. We stay at Motel 6 or Studio 6 often. We usually know what to expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Lady at front desk (didn't catch her name) needs to learn to speak up. Room 228 was cleanish but VERY cramped. Should have only had a twin size bed. Not a full size bed. There might have been a picture on the wall at some time. Only evidence was a couple pieces of double-sided sticky tape on wall. Fridge &amp; microwave were old &amp; rusty. Room phone had almost all buttons missing. Nightstand lampshade was falling apart. Cabinet/drawers for TV &amp; clothes was beat up &amp; scratched. One of the drawers had been fixed with screws visible on front of drawer. One of the pull handles on sliding door to close in front of TV was missing. Coffee maker was old &amp; yucky, no pot. There were no coffee cups. Only one tiny little pot for cooking. Lower kitchen cabinet doors stayed slightly open &amp; had grease residue. I guess this is what we get for asking to check in early &amp; use 10% email discount for online reservation. We stay at Motel 6 or Studio 6 often. We usually know what to expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r408300722-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408300722</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Filthy and Unkept</t>
+  </si>
+  <si>
+    <t>No whining in this review, simply the facts: two dead roaches in the bathroom, holes in the walls from previously placed pictures, filthy floors, rust stains in the tub, musty odor, entry door that was one size too small for the frame, exterior porches and walkways with numerous cigarette butts &amp; dog excrement, ill tasting tap water, mismatched furniture, etc.What was good? – free internet &amp; the price (slightly below average).</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r349635437-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349635437</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Helpful</t>
+  </si>
+  <si>
+    <t>First room we had issues so they moved me rooms and gave me a better rate and been awesome at customer  service. Kitchenettes are a helpful plus and I so value being here even for a short time. I would recommend  due to it close to shopping and freeway and to Houston and clear lake</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r331507502-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331507502</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>Worst Studio 6 Ever</t>
+  </si>
+  <si>
+    <t>This hotels is very run down and it has been poorly renovated.   I stayed here for 3 weeks.  The first room I had was a queen on the middle floor.  There was not much room to move, the furniture had stains, a picture fell of the wall and onto the bed, the microwave and the refrigerator were rusted inside and out and the walk in shower's curtain does not go down all the way resulting in the floor getting wet with every shower. The walls are very thin and you could hear the other guests next to and above.  
+I advised the staff I was in town on business and needed to be able to sleep and work without all of the noise.  The only option was to move up to the 3rd level to a king sized smoking room and pay a reasonable increase.  They did move me over to the less occupied area of the hotel and I appreciated the effort by Randy (she's awesome).  I stayed in this room for 2 weeks with weekly cleanings scheduled.  They only changed out the sheets, towels and took out the trash. The inside of the toilet was never scrubbed and the floors were never mopped (really disgusting).  They also do not know the difference between a pool towel and a room towel.  Had really nice and new towels the first week and then thereafter they were pool towels and the...This hotels is very run down and it has been poorly renovated.   I stayed here for 3 weeks.  The first room I had was a queen on the middle floor.  There was not much room to move, the furniture had stains, a picture fell of the wall and onto the bed, the microwave and the refrigerator were rusted inside and out and the walk in shower's curtain does not go down all the way resulting in the floor getting wet with every shower. The walls are very thin and you could hear the other guests next to and above.  I advised the staff I was in town on business and needed to be able to sleep and work without all of the noise.  The only option was to move up to the 3rd level to a king sized smoking room and pay a reasonable increase.  They did move me over to the less occupied area of the hotel and I appreciated the effort by Randy (she's awesome).  I stayed in this room for 2 weeks with weekly cleanings scheduled.  They only changed out the sheets, towels and took out the trash. The inside of the toilet was never scrubbed and the floors were never mopped (really disgusting).  They also do not know the difference between a pool towel and a room towel.  Had really nice and new towels the first week and then thereafter they were pool towels and the last cleaning only got wash clothes and the pool towels, no hand towels.  The pillowcases are too small for the pillows, resulting in the pillows sticking out 4-6 inches.   The coffee maker had some sort of growth inside of the water reservoir. Again the walls were very thin and I could hear my neighbor every time they opened a cabinet and/or getting the pots and pans.  The internet speed was acceptable however the manager refused to put me in touch with their IT department so that I could register my MAC address for my Apple TV, said it couldn't be done (That's a first for me).  Not to mention WIFI access is part of the rate I pay.I inquired where the fitness center was, they laughed and said "Oh it's under construction" , based on their response I don't think it exists.This truly was the worst Studio 6 I have ever stayed in, I moved up to Dallas today and they are worlds apart.  I would recommend the Value Place down the road in Texas City if you have the extra time to commute.  The only good thing is the location, it's just south of the Sam Houston Pkwy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This hotels is very run down and it has been poorly renovated.   I stayed here for 3 weeks.  The first room I had was a queen on the middle floor.  There was not much room to move, the furniture had stains, a picture fell of the wall and onto the bed, the microwave and the refrigerator were rusted inside and out and the walk in shower's curtain does not go down all the way resulting in the floor getting wet with every shower. The walls are very thin and you could hear the other guests next to and above.  
+I advised the staff I was in town on business and needed to be able to sleep and work without all of the noise.  The only option was to move up to the 3rd level to a king sized smoking room and pay a reasonable increase.  They did move me over to the less occupied area of the hotel and I appreciated the effort by Randy (she's awesome).  I stayed in this room for 2 weeks with weekly cleanings scheduled.  They only changed out the sheets, towels and took out the trash. The inside of the toilet was never scrubbed and the floors were never mopped (really disgusting).  They also do not know the difference between a pool towel and a room towel.  Had really nice and new towels the first week and then thereafter they were pool towels and the...This hotels is very run down and it has been poorly renovated.   I stayed here for 3 weeks.  The first room I had was a queen on the middle floor.  There was not much room to move, the furniture had stains, a picture fell of the wall and onto the bed, the microwave and the refrigerator were rusted inside and out and the walk in shower's curtain does not go down all the way resulting in the floor getting wet with every shower. The walls are very thin and you could hear the other guests next to and above.  I advised the staff I was in town on business and needed to be able to sleep and work without all of the noise.  The only option was to move up to the 3rd level to a king sized smoking room and pay a reasonable increase.  They did move me over to the less occupied area of the hotel and I appreciated the effort by Randy (she's awesome).  I stayed in this room for 2 weeks with weekly cleanings scheduled.  They only changed out the sheets, towels and took out the trash. The inside of the toilet was never scrubbed and the floors were never mopped (really disgusting).  They also do not know the difference between a pool towel and a room towel.  Had really nice and new towels the first week and then thereafter they were pool towels and the last cleaning only got wash clothes and the pool towels, no hand towels.  The pillowcases are too small for the pillows, resulting in the pillows sticking out 4-6 inches.   The coffee maker had some sort of growth inside of the water reservoir. Again the walls were very thin and I could hear my neighbor every time they opened a cabinet and/or getting the pots and pans.  The internet speed was acceptable however the manager refused to put me in touch with their IT department so that I could register my MAC address for my Apple TV, said it couldn't be done (That's a first for me).  Not to mention WIFI access is part of the rate I pay.I inquired where the fitness center was, they laughed and said "Oh it's under construction" , based on their response I don't think it exists.This truly was the worst Studio 6 I have ever stayed in, I moved up to Dallas today and they are worlds apart.  I would recommend the Value Place down the road in Texas City if you have the extra time to commute.  The only good thing is the location, it's just south of the Sam Houston Pkwy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r290541557-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>290541557</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Clean, affordable, and a full kitchen!</t>
+  </si>
+  <si>
+    <t>I was in need of an extended stay hotel in the Houston Market and came across this hotel. I was in the area for 6 months and found this place to be the best deal in town. My room was clean and comfortable with anew mattress. The hotel was undergoing renovations and was asked if I wanted to move to one of he new rooms as they were ready to start the one I was in. I was really impressed with the new room it had new paint and new bed linens  and they replaced carpets with wood flooring I was blown away with how nice my new room looked new countertops in kitchen and bath it was top notch for what I was paying! My family came for a visit while I was working in the area and loved the pool that is not
+Something you get with a budget type hotel and was a nice touch my family really took advantage of that while I worked. I took advantage of the onsite guest laundry which saved from going to the laundromat and the Staff was always very helpful the Managent Timothy and Tami were helpful in every way they could be alway greeting me with a smile and knowing who I was and using my name it's a dying attribute in he hospitality business always making we feel welcomed. I would recommend this hotel to a one that...I was in need of an extended stay hotel in the Houston Market and came across this hotel. I was in the area for 6 months and found this place to be the best deal in town. My room was clean and comfortable with anew mattress. The hotel was undergoing renovations and was asked if I wanted to move to one of he new rooms as they were ready to start the one I was in. I was really impressed with the new room it had new paint and new bed linens  and they replaced carpets with wood flooring I was blown away with how nice my new room looked new countertops in kitchen and bath it was top notch for what I was paying! My family came for a visit while I was working in the area and loved the pool that is notSomething you get with a budget type hotel and was a nice touch my family really took advantage of that while I worked. I took advantage of the onsite guest laundry which saved from going to the laundromat and the Staff was always very helpful the Managent Timothy and Tami were helpful in every way they could be alway greeting me with a smile and knowing who I was and using my name it's a dying attribute in he hospitality business always making we feel welcomed. I would recommend this hotel to a one that wants an affordable, clean hotel with a kitchen because it gets expense to eat out every night and having the full kitchen with all the cooking and eating utensils including a toaster made it so easy for me to make most of my meals there and enable me to save some money while working out of town. Thank you all again I really enjoyed my stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>HJ16520, Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>I was in need of an extended stay hotel in the Houston Market and came across this hotel. I was in the area for 6 months and found this place to be the best deal in town. My room was clean and comfortable with anew mattress. The hotel was undergoing renovations and was asked if I wanted to move to one of he new rooms as they were ready to start the one I was in. I was really impressed with the new room it had new paint and new bed linens  and they replaced carpets with wood flooring I was blown away with how nice my new room looked new countertops in kitchen and bath it was top notch for what I was paying! My family came for a visit while I was working in the area and loved the pool that is not
+Something you get with a budget type hotel and was a nice touch my family really took advantage of that while I worked. I took advantage of the onsite guest laundry which saved from going to the laundromat and the Staff was always very helpful the Managent Timothy and Tami were helpful in every way they could be alway greeting me with a smile and knowing who I was and using my name it's a dying attribute in he hospitality business always making we feel welcomed. I would recommend this hotel to a one that...I was in need of an extended stay hotel in the Houston Market and came across this hotel. I was in the area for 6 months and found this place to be the best deal in town. My room was clean and comfortable with anew mattress. The hotel was undergoing renovations and was asked if I wanted to move to one of he new rooms as they were ready to start the one I was in. I was really impressed with the new room it had new paint and new bed linens  and they replaced carpets with wood flooring I was blown away with how nice my new room looked new countertops in kitchen and bath it was top notch for what I was paying! My family came for a visit while I was working in the area and loved the pool that is notSomething you get with a budget type hotel and was a nice touch my family really took advantage of that while I worked. I took advantage of the onsite guest laundry which saved from going to the laundromat and the Staff was always very helpful the Managent Timothy and Tami were helpful in every way they could be alway greeting me with a smile and knowing who I was and using my name it's a dying attribute in he hospitality business always making we feel welcomed. I would recommend this hotel to a one that wants an affordable, clean hotel with a kitchen because it gets expense to eat out every night and having the full kitchen with all the cooking and eating utensils including a toaster made it so easy for me to make most of my meals there and enable me to save some money while working out of town. Thank you all again I really enjoyed my stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r265537316-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265537316</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Great rooms, great price</t>
+  </si>
+  <si>
+    <t>I had a very good nights stay in one of thier newly remodeled rooms. I was very happy with the front desk service as well. I would stay there again if I am in the Houston area. It is easy to get to the hotel too, but not too close to the freeway as to get alot of truck noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Timothy M, Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>I had a very good nights stay in one of thier newly remodeled rooms. I was very happy with the front desk service as well. I would stay there again if I am in the Houston area. It is easy to get to the hotel too, but not too close to the freeway as to get alot of truck noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r262746621-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262746621</t>
+  </si>
+  <si>
+    <t>03/30/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r261210350-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261210350</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>What a Dump</t>
+  </si>
+  <si>
+    <t>Room 207...The room was tight with just two double beds..The bed sheets and bedspread needed to be thrown out...the room was absolutely filthy. On our third night, low and behold the roaches came out to play!! Just nasty. Called the manager to come and verify this himself because when my husband went down to retrieve fresh towels and toilet paper, he informed the front clerk and manager of the roach problem, in which they seemed completely shocked...RIGHT... I will say this, after the manager looked at the roaches crawling all around the refrigerator, he promised to refund us 2 nights stay, although it hasn't been refunded yet. Needless to say we will not recommend this hotel to anyone.        S. Lewis MoreShow less</t>
+  </si>
+  <si>
+    <t>Room 207...The room was tight with just two double beds..The bed sheets and bedspread needed to be thrown out...the room was absolutely filthy. On our third night, low and behold the roaches came out to play!! Just nasty. Called the manager to come and verify this himself because when my husband went down to retrieve fresh towels and toilet paper, he informed the front clerk and manager of the roach problem, in which they seemed completely shocked...RIGHT... I will say this, after the manager looked at the roaches crawling all around the refrigerator, he promised to refund us 2 nights stay, although it hasn't been refunded yet. Needless to say we will not recommend this hotel to anyone.        S. Lewis More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r260213163-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260213163</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r257570593-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257570593</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>wileybarber, Vice President Sales and Marketing at Studio 6 Houston - Clear Lake, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r257364328-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257364328</t>
+  </si>
+  <si>
+    <t>03/02/2015</t>
+  </si>
+  <si>
+    <t>Howard Johnson stay</t>
+  </si>
+  <si>
+    <t>The room was dirty and the sheets had burn holes and stains on them. We accidentally left our bottle of whiskey in the freezer and when I called to ask about it we were told that housekeeping didn't find it. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was dirty and the sheets had burn holes and stains on them. We accidentally left our bottle of whiskey in the freezer and when I called to ask about it we were told that housekeeping didn't find it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r254741400-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254741400</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r253221039-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253221039</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>I travel a lot for business, most often by car and the trip to the Houston area is one of my longest drives, over 17 hours.  I arrived late at night and was warmly greeted by Loyda.  My 6 night stay was everything I needed it to be.  Tami at the front desk always addressed me by name and she and the manager, Phillip always made sure everything was okay.  The hotel is in a convenient location with plenty of parking, a good breakfast, free strong wifi and a quiet comfortable night's rest.  My business takes me to over 30 cities on an annual basis and I would rate this hotel and it's personnel at the top.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>I travel a lot for business, most often by car and the trip to the Houston area is one of my longest drives, over 17 hours.  I arrived late at night and was warmly greeted by Loyda.  My 6 night stay was everything I needed it to be.  Tami at the front desk always addressed me by name and she and the manager, Phillip always made sure everything was okay.  The hotel is in a convenient location with plenty of parking, a good breakfast, free strong wifi and a quiet comfortable night's rest.  My business takes me to over 30 cities on an annual basis and I would rate this hotel and it's personnel at the top.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r252492627-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252492627</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Not the worst .. not great either</t>
+  </si>
+  <si>
+    <t>Worth the price, though could be better. The room in general is pretty small. Room kitchenette was clean. Beds were not great, sheets were not tucked tight when we arrived as you would expect. Bathroom was ok, pretty smallBreakfast room was TOO small! This was a disappointment. 5  small two seater tables packed in a tiny room. Even though the website says "Hot breakfast", it isnt. Do not expect sausage, gravy, eggs or anything. As far as I know, tea coffee, bread, butter and orange juice with a microwave in the room does not qualify as Hot Breakfast. Though no complains with the food, everything was fresh. Parking was great, plenty of spots. People at the hotel in general were nice. . MoreShow less</t>
+  </si>
+  <si>
+    <t>Worth the price, though could be better. The room in general is pretty small. Room kitchenette was clean. Beds were not great, sheets were not tucked tight when we arrived as you would expect. Bathroom was ok, pretty smallBreakfast room was TOO small! This was a disappointment. 5  small two seater tables packed in a tiny room. Even though the website says "Hot breakfast", it isnt. Do not expect sausage, gravy, eggs or anything. As far as I know, tea coffee, bread, butter and orange juice with a microwave in the room does not qualify as Hot Breakfast. Though no complains with the food, everything was fresh. Parking was great, plenty of spots. People at the hotel in general were nice. . More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r238841120-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238841120</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r238733246-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238733246</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r238131782-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238131782</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r226178545-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226178545</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Labor Day Weekend Stay</t>
+  </si>
+  <si>
+    <t>A last minute decision to fish and take in the beach had me looking for reasonable accommodations for the Labor Day weekend. Galveston was my first choice but last minute reservations were thru the roof. So instead l opted for Kemah which offered fishing and entertainment on the boardwalk. Again most rooms had been booked so l looked into rooms at Howard Johnson- Clear Lake which is situated in Houston but only about 10 miles from Kemah. l used my Rewards point to reserve 2 2-double bed rooms which were equipped for extended-stay living. The rooms were a bit small but featured a full-sized refrigerator, 2-burner stove, and a microwave. There was also a coffee station, iron and board and blow dryer. The hotel had free wi-fi, fitness room, swimming pool business center and Rise and Dine breakfast.  The staff were friendly and overall the stay was pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>A last minute decision to fish and take in the beach had me looking for reasonable accommodations for the Labor Day weekend. Galveston was my first choice but last minute reservations were thru the roof. So instead l opted for Kemah which offered fishing and entertainment on the boardwalk. Again most rooms had been booked so l looked into rooms at Howard Johnson- Clear Lake which is situated in Houston but only about 10 miles from Kemah. l used my Rewards point to reserve 2 2-double bed rooms which were equipped for extended-stay living. The rooms were a bit small but featured a full-sized refrigerator, 2-burner stove, and a microwave. There was also a coffee station, iron and board and blow dryer. The hotel had free wi-fi, fitness room, swimming pool business center and Rise and Dine breakfast.  The staff were friendly and overall the stay was pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r225563579-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225563579</t>
+  </si>
+  <si>
+    <t>08/30/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r216951129-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216951129</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r209036780-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209036780</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r208433610-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208433610</t>
+  </si>
+  <si>
+    <t>06/01/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r204424135-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204424135</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Burned drapes, blood smeared bathroom UGH</t>
+  </si>
+  <si>
+    <t>BEWARE, far better to sleep in your rental car than enter this motel!  I stayed there 2 nights during OTC, May 5 &amp; 6, when there is NO OTHER HOTEL available in the city..my mistake.  The room was infused with cigarette smoke, smelled like an ashtray, even the drapes had burn holes in them, as well as every solid service; sinks, tub, etc.  There were stains in the fabric of the dining chairs, and broken glass in the walkway to the elevators.  What is even worse, I arrived at midnight and to my horror watched the clerk copy my drivers license and credit card, to file them in a cardboard box behind the desk!  when I objected, he said, "no one knows they are there?" yeah except for every other person who checks in and is subjected to this potential identity theft!  And judging by the type of clientele, who hovered by their open doorways over alcoholic drinks, not the type of patrons who could be trusted with my sensitive information.  REALLY, in this digital age, you need a copy of my information filed in a  box??!!! SHAME ON YOU HOJO!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>BEWARE, far better to sleep in your rental car than enter this motel!  I stayed there 2 nights during OTC, May 5 &amp; 6, when there is NO OTHER HOTEL available in the city..my mistake.  The room was infused with cigarette smoke, smelled like an ashtray, even the drapes had burn holes in them, as well as every solid service; sinks, tub, etc.  There were stains in the fabric of the dining chairs, and broken glass in the walkway to the elevators.  What is even worse, I arrived at midnight and to my horror watched the clerk copy my drivers license and credit card, to file them in a cardboard box behind the desk!  when I objected, he said, "no one knows they are there?" yeah except for every other person who checks in and is subjected to this potential identity theft!  And judging by the type of clientele, who hovered by their open doorways over alcoholic drinks, not the type of patrons who could be trusted with my sensitive information.  REALLY, in this digital age, you need a copy of my information filed in a  box??!!! SHAME ON YOU HOJO!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r197995152-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197995152</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r196310998-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196310998</t>
+  </si>
+  <si>
+    <t>03/05/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r192402121-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192402121</t>
+  </si>
+  <si>
+    <t>01/28/2014</t>
+  </si>
+  <si>
+    <t>My Residence for a few weeks</t>
+  </si>
+  <si>
+    <t>In the two weeks I've stayed here the morning coffee and toast was great. In the time spent there my room it was serviced I believe twice and was charged for multiple days where in fact I checked out a day early. When this happened it was because the person staying prior to me left his clothes in a drawer and I put it on the tv so I could use the space in the drawer. I talked to the manager and was refunded the correct amount and I really appreciated this. She was understanding and respectful and this is why I would stay in Howard Johnson again. Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>In the two weeks I've stayed here the morning coffee and toast was great. In the time spent there my room it was serviced I believe twice and was charged for multiple days where in fact I checked out a day early. When this happened it was because the person staying prior to me left his clothes in a drawer and I put it on the tv so I could use the space in the drawer. I talked to the manager and was refunded the correct amount and I really appreciated this. She was understanding and respectful and this is why I would stay in Howard Johnson again. Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r184204896-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184204896</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>Wierd  House Keeper!</t>
+  </si>
+  <si>
+    <t>Hotel has a great Location and the rooms are very roomy. However  All the guys in our work crew noticed an older House keeper with an old biker look,meaning; she had a pony tail and was over 50 years old, who bent over backwards to watch ever move you made..We noticed her  Wednesday and Friday. But it was not until the weekend did we notice that she was really stalking every move we made. After checking  to see who she was , we were told by another House Keeper that she was the head house keeper and that she didn't like Mexican's. Go figure, Texas at one time belong to Mexico.. Now I know why the rooms are smelly.. The head house keeper is not keeping house...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Hotel has a great Location and the rooms are very roomy. However  All the guys in our work crew noticed an older House keeper with an old biker look,meaning; she had a pony tail and was over 50 years old, who bent over backwards to watch ever move you made..We noticed her  Wednesday and Friday. But it was not until the weekend did we notice that she was really stalking every move we made. After checking  to see who she was , we were told by another House Keeper that she was the head house keeper and that she didn't like Mexican's. Go figure, Texas at one time belong to Mexico.. Now I know why the rooms are smelly.. The head house keeper is not keeping house...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r182081117-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182081117</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r178656388-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>178656388</t>
+  </si>
+  <si>
+    <t>09/25/2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r171807098-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171807098</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Not great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to repair the rooms. And room wasn't clean until 6:30 that evening would give any discount. It was a bad situation </t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r171101151-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171101151</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r168084070-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168084070</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r167696259-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167696259</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">was good■Describe the service you experienced■Tell us how you liked the room■Talk about the location &amp; amenities■Say what you liked best &amp; least </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r167679138-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167679138</t>
+  </si>
+  <si>
+    <t>Filthy Nasty Hotel</t>
+  </si>
+  <si>
+    <t>We had booked a room here because it was close and convenient to where we needed to be. The Hotel staff was friendly but never even checked an ID before giving us a room key. The First room smelled badly of mold and was absolutely filthy. There were holes in the walls and doors exploded food coated the microwave and stove and there were visible bugs crawling on the bed.  We asked for a room on the other side of the hotel and on a different floor. The clerk was nice and accommodating. We went to the second room that reeked of urine and was as dirty as the first with more holes in the walls and doors,and dried urine all over the bathroom. We left, we went a stayed at a wonderful hotel not even 5 minutes away on the Sam Houston tollway.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had booked a room here because it was close and convenient to where we needed to be. The Hotel staff was friendly but never even checked an ID before giving us a room key. The First room smelled badly of mold and was absolutely filthy. There were holes in the walls and doors exploded food coated the microwave and stove and there were visible bugs crawling on the bed.  We asked for a room on the other side of the hotel and on a different floor. The clerk was nice and accommodating. We went to the second room that reeked of urine and was as dirty as the first with more holes in the walls and doors,and dried urine all over the bathroom. We left, we went a stayed at a wonderful hotel not even 5 minutes away on the Sam Houston tollway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r166972838-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166972838</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Double booked, trashed room, and can't borrow 1 plastic knife?</t>
+  </si>
+  <si>
+    <t>When we arrived to check in they had double booked rooms, the one room they had left was trashed and they made us wait for them to clean it. The pool is tiny compared to the picture online and the girls at the front desk are rude. After all that hassle we get back to the room our second night and neither of our door keys worked. The next night I went to the office and asked if I could have a plastic knife to make sandwiches in the room and she wouldn't give me one per company policy after all the crap we'd been thru with them. However there was a house keeper named Rachel who kept apologizing for the service and was very friendly and helpful. She should be promoted or something.MoreShow less</t>
+  </si>
+  <si>
+    <t>When we arrived to check in they had double booked rooms, the one room they had left was trashed and they made us wait for them to clean it. The pool is tiny compared to the picture online and the girls at the front desk are rude. After all that hassle we get back to the room our second night and neither of our door keys worked. The next night I went to the office and asked if I could have a plastic knife to make sandwiches in the room and she wouldn't give me one per company policy after all the crap we'd been thru with them. However there was a house keeper named Rachel who kept apologizing for the service and was very friendly and helpful. She should be promoted or something.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r166769826-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166769826</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>terrible room service</t>
+  </si>
+  <si>
+    <t>Place has regular live-in customer, which actually live there daily. They are unstaff and the live in customers get service first. Try staying 4 days could only stay 2 nites. Did not turn beds or bring clean towels. Went to desk was assure she would bring some waited all afternoon.She didnt. Went next day to desk and she said she forgot and she was real busy because of the holiday and they were shore handed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r166184911-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166184911</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r166085298-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166085298</t>
+  </si>
+  <si>
+    <t>07/02/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r160727818-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160727818</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>State Bowling Weekend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly desk staff, hotel located near the bowling alleys, breakfast was more than enough variety and the price was the BEST. </t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r154974139-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154974139</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>DON'T WASTE YOUR MONEY ON THIS DUMP!!!!!!</t>
+  </si>
+  <si>
+    <t>First off the room was small and the beds weren't queen size at all! There was roaches crawling around and i asked for another room which she gave to me and that wasn't any better; the headboard was broken, the beds were so hard me and husbands back were hurting the whole time, it smelled bad, and the fridge had mold on the inside of the door. The breakfast was HORRIBLE!!!! The breakfast room was so small and DIRTY!!!! They cook the eggs and sausage in the microwave and were burnt. The bagels were hard, the muffins were nasty, and they had the same cereal for the 3 days we were there. My kids didn't like the breakfast at all and complained the whole time because there was no cable like the website said which is false advertisement; thankfully the kids had portable dvd players. I WOULD NEVER RECOMMEND THIS HOTEL TO ANYBODY!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>First off the room was small and the beds weren't queen size at all! There was roaches crawling around and i asked for another room which she gave to me and that wasn't any better; the headboard was broken, the beds were so hard me and husbands back were hurting the whole time, it smelled bad, and the fridge had mold on the inside of the door. The breakfast was HORRIBLE!!!! The breakfast room was so small and DIRTY!!!! They cook the eggs and sausage in the microwave and were burnt. The bagels were hard, the muffins were nasty, and they had the same cereal for the 3 days we were there. My kids didn't like the breakfast at all and complained the whole time because there was no cable like the website said which is false advertisement; thankfully the kids had portable dvd players. I WOULD NEVER RECOMMEND THIS HOTEL TO ANYBODY!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r154453598-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154453598</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r146742254-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146742254</t>
+  </si>
+  <si>
+    <t>12/04/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r145706417-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145706417</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>first time</t>
+  </si>
+  <si>
+    <t>room was clean,we were surprised by all the amenties hair dryer coffee pot/with coffee .iron with ironing board. the only prolem we had was with the people up stairs very noisey MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill C, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded December 4, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2012</t>
+  </si>
+  <si>
+    <t>room was clean,we were surprised by all the amenties hair dryer coffee pot/with coffee .iron with ironing board. the only prolem we had was with the people up stairs very noisey More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r144864087-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144864087</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>We got Screwed by them and Hotwire.</t>
+  </si>
+  <si>
+    <t>My family and I planned for an over night to show off the new born baby to friends in the Webster/League city areas, and during our visit (as done many times before successfully) I used HOTWIRE to book a room for almost $80. After the family van had problems we got back on the road and of course it was wee hours of the morning. All I wanted to do was shower and stretch out to get a nap before the long ride home. We pull in and go to check in..only to be told that they had cancelled our reservation without so much as a phone call to us to check or let us know. After the shock of being told that I would have to pay for another room and that it was their fault, and to maybe call back monday to see about getting a refund...Then discovering that Hotwire doesn't do refunds. (which we really didn't want...we wanted a room to rest and shower, which we had already paid for after half an hour on the phone arguing with desk dummy, we called it quits and never got a room. As of this posting the manager has been contacted several times over this, and have yet to even get a courtisy call from him saying I got your message. That is THEFT where i come from! If we wanted  to get robbed I would have booked a...My family and I planned for an over night to show off the new born baby to friends in the Webster/League city areas, and during our visit (as done many times before successfully) I used HOTWIRE to book a room for almost $80. After the family van had problems we got back on the road and of course it was wee hours of the morning. All I wanted to do was shower and stretch out to get a nap before the long ride home. We pull in and go to check in..only to be told that they had cancelled our reservation without so much as a phone call to us to check or let us know. After the shock of being told that I would have to pay for another room and that it was their fault, and to maybe call back monday to see about getting a refund...Then discovering that Hotwire doesn't do refunds. (which we really didn't want...we wanted a room to rest and shower, which we had already paid for after half an hour on the phone arguing with desk dummy, we called it quits and never got a room. As of this posting the manager has been contacted several times over this, and have yet to even get a courtisy call from him saying I got your message. That is THEFT where i come from! If we wanted  to get robbed I would have booked a room in the ghetto. Don't go anywhere near these thieves.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill C, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded November 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2012</t>
+  </si>
+  <si>
+    <t>My family and I planned for an over night to show off the new born baby to friends in the Webster/League city areas, and during our visit (as done many times before successfully) I used HOTWIRE to book a room for almost $80. After the family van had problems we got back on the road and of course it was wee hours of the morning. All I wanted to do was shower and stretch out to get a nap before the long ride home. We pull in and go to check in..only to be told that they had cancelled our reservation without so much as a phone call to us to check or let us know. After the shock of being told that I would have to pay for another room and that it was their fault, and to maybe call back monday to see about getting a refund...Then discovering that Hotwire doesn't do refunds. (which we really didn't want...we wanted a room to rest and shower, which we had already paid for after half an hour on the phone arguing with desk dummy, we called it quits and never got a room. As of this posting the manager has been contacted several times over this, and have yet to even get a courtisy call from him saying I got your message. That is THEFT where i come from! If we wanted  to get robbed I would have booked a...My family and I planned for an over night to show off the new born baby to friends in the Webster/League city areas, and during our visit (as done many times before successfully) I used HOTWIRE to book a room for almost $80. After the family van had problems we got back on the road and of course it was wee hours of the morning. All I wanted to do was shower and stretch out to get a nap before the long ride home. We pull in and go to check in..only to be told that they had cancelled our reservation without so much as a phone call to us to check or let us know. After the shock of being told that I would have to pay for another room and that it was their fault, and to maybe call back monday to see about getting a refund...Then discovering that Hotwire doesn't do refunds. (which we really didn't want...we wanted a room to rest and shower, which we had already paid for after half an hour on the phone arguing with desk dummy, we called it quits and never got a room. As of this posting the manager has been contacted several times over this, and have yet to even get a courtisy call from him saying I got your message. That is THEFT where i come from! If we wanted  to get robbed I would have booked a room in the ghetto. Don't go anywhere near these thieves.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r137017000-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137017000</t>
+  </si>
+  <si>
+    <t>08/12/2012</t>
+  </si>
+  <si>
+    <t>ARE YOU KIDDING ME????</t>
+  </si>
+  <si>
+    <t>When we arrived there were people, apparent full-time residents carrying on, throwing cigarettes off the walkway socializing with their room doors wide open. It was after midnight! I had alerted the staff before I even stepped in building to check in! I told them I didnt want a room anywhere near those folks which seemed to bother them, REALLY??? We checked in after a long trip we wanted nothing more than sleep lo &amp; behold, Blood stained sheets in one bed and short God knows from where hair all inside the other bed!!! Manager Bill was anything but concerned, he kept making reference to being bothered &amp; he was already in his bed. Told us "if we didnt like it we could wait 2-3 days for our refund" or "drive to another hotel in another city"  After speaking with my more rational husband manager Bill Cirlot said he would refund our charges and put us up for free at Hoilday inn Hobby @ Hobby Airport for the evening. Stated Charges on my Credit Card would drop off with the week. Guess What??? Its been 10 days and not a single word from him or anyone else @ Wyndham i've complained to. Funny thing was there were several other guests demanding a refund ahead of me and they charged the hotel room to my card before the would give my our room key. Not happy or the least impressed!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Bill C, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded August 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2012</t>
+  </si>
+  <si>
+    <t>When we arrived there were people, apparent full-time residents carrying on, throwing cigarettes off the walkway socializing with their room doors wide open. It was after midnight! I had alerted the staff before I even stepped in building to check in! I told them I didnt want a room anywhere near those folks which seemed to bother them, REALLY??? We checked in after a long trip we wanted nothing more than sleep lo &amp; behold, Blood stained sheets in one bed and short God knows from where hair all inside the other bed!!! Manager Bill was anything but concerned, he kept making reference to being bothered &amp; he was already in his bed. Told us "if we didnt like it we could wait 2-3 days for our refund" or "drive to another hotel in another city"  After speaking with my more rational husband manager Bill Cirlot said he would refund our charges and put us up for free at Hoilday inn Hobby @ Hobby Airport for the evening. Stated Charges on my Credit Card would drop off with the week. Guess What??? Its been 10 days and not a single word from him or anyone else @ Wyndham i've complained to. Funny thing was there were several other guests demanding a refund ahead of me and they charged the hotel room to my card before the would give my our room key. Not happy or the least impressed!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r136259221-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136259221</t>
+  </si>
+  <si>
+    <t>08/04/2012</t>
+  </si>
+  <si>
+    <t>Hotel stay</t>
+  </si>
+  <si>
+    <t>The Howard johnson that is located by the airport in Houston was very clean, quiet and seamed very safe... The down side for our particular visit is there was road construction so it was difficult to get in if you were going southbound due to the road being closed.. Was worth what we paid and had a decient breakfast...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Bill C, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded August 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2012</t>
+  </si>
+  <si>
+    <t>The Howard johnson that is located by the airport in Houston was very clean, quiet and seamed very safe... The down side for our particular visit is there was road construction so it was difficult to get in if you were going southbound due to the road being closed.. Was worth what we paid and had a decient breakfast...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r135201000-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135201000</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Do not stay at this motel.</t>
+  </si>
+  <si>
+    <t>I could go on for days about my experience at this motel. My room is not clean, my carpet smells like urine, the refrigerator door doesn't shut, the stove doesn't work, the remote doesn't work, the comforter has cigarette burns in it (supposed to be a non-smoking room), the maid only came once in 8 days (only had 2 towels and no washcloths), the fire alarm has gone off twice for no reason in the middle of the night, the wi-fi has been down for days, and there is a trash can outside my door that is constantly overflowing and the ants have blazed a trail all the way up to the second floor. I still have another week left here so wish me luck. MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill C, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>I could go on for days about my experience at this motel. My room is not clean, my carpet smells like urine, the refrigerator door doesn't shut, the stove doesn't work, the remote doesn't work, the comforter has cigarette burns in it (supposed to be a non-smoking room), the maid only came once in 8 days (only had 2 towels and no washcloths), the fire alarm has gone off twice for no reason in the middle of the night, the wi-fi has been down for days, and there is a trash can outside my door that is constantly overflowing and the ants have blazed a trail all the way up to the second floor. I still have another week left here so wish me luck. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r130421716-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130421716</t>
+  </si>
+  <si>
+    <t>05/22/2012</t>
+  </si>
+  <si>
+    <t>Meh...</t>
+  </si>
+  <si>
+    <t>There were several festivals going on in the area and there were rooms here.  We got a good price on the room through Priceline.  I don't think the room was worth more than that to be honest.  The room was old and dated and reeked of stale smoke, but was clean(ish). It was fine for a place to sleep.  The location was good.  The front desk clerk was very nice and as accommodating as he could be. Overall the property was kind of grungy.  The sidewalks could have used a good pressure washing.  My biggest complaint was the level of noise at 1:00 am.  There were young kids literally running around everywhere and hanging out outside of the door (they were in the room next door.  About 5 of them ages 5-12 or so.). They were running up and down the sidewalk for about an hour, screaming and playing.  Their parents were out there with them.  I think there were a lot of long term lodgers there, because when I went to get a soda (and see what was going on) there were a lot of people on different floors just drinking and hanging out outside of their rooms while their young kids ran up and down the sidewalks.  Mind you this was one in the morning.  I know this isn't the hotels fault, but I wish security would have said something.
+In the future, I'll just pay a little...There were several festivals going on in the area and there were rooms here.  We got a good price on the room through Priceline.  I don't think the room was worth more than that to be honest.  The room was old and dated and reeked of stale smoke, but was clean(ish). It was fine for a place to sleep.  The location was good.  The front desk clerk was very nice and as accommodating as he could be. Overall the property was kind of grungy.  The sidewalks could have used a good pressure washing.  My biggest complaint was the level of noise at 1:00 am.  There were young kids literally running around everywhere and hanging out outside of the door (they were in the room next door.  About 5 of them ages 5-12 or so.). They were running up and down the sidewalk for about an hour, screaming and playing.  Their parents were out there with them.  I think there were a lot of long term lodgers there, because when I went to get a soda (and see what was going on) there were a lot of people on different floors just drinking and hanging out outside of their rooms while their young kids ran up and down the sidewalks.  Mind you this was one in the morning.  I know this isn't the hotels fault, but I wish security would have said something.In the future, I'll just pay a little extra and stay elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>There were several festivals going on in the area and there were rooms here.  We got a good price on the room through Priceline.  I don't think the room was worth more than that to be honest.  The room was old and dated and reeked of stale smoke, but was clean(ish). It was fine for a place to sleep.  The location was good.  The front desk clerk was very nice and as accommodating as he could be. Overall the property was kind of grungy.  The sidewalks could have used a good pressure washing.  My biggest complaint was the level of noise at 1:00 am.  There were young kids literally running around everywhere and hanging out outside of the door (they were in the room next door.  About 5 of them ages 5-12 or so.). They were running up and down the sidewalk for about an hour, screaming and playing.  Their parents were out there with them.  I think there were a lot of long term lodgers there, because when I went to get a soda (and see what was going on) there were a lot of people on different floors just drinking and hanging out outside of their rooms while their young kids ran up and down the sidewalks.  Mind you this was one in the morning.  I know this isn't the hotels fault, but I wish security would have said something.
+In the future, I'll just pay a little...There were several festivals going on in the area and there were rooms here.  We got a good price on the room through Priceline.  I don't think the room was worth more than that to be honest.  The room was old and dated and reeked of stale smoke, but was clean(ish). It was fine for a place to sleep.  The location was good.  The front desk clerk was very nice and as accommodating as he could be. Overall the property was kind of grungy.  The sidewalks could have used a good pressure washing.  My biggest complaint was the level of noise at 1:00 am.  There were young kids literally running around everywhere and hanging out outside of the door (they were in the room next door.  About 5 of them ages 5-12 or so.). They were running up and down the sidewalk for about an hour, screaming and playing.  Their parents were out there with them.  I think there were a lot of long term lodgers there, because when I went to get a soda (and see what was going on) there were a lot of people on different floors just drinking and hanging out outside of their rooms while their young kids ran up and down the sidewalks.  Mind you this was one in the morning.  I know this isn't the hotels fault, but I wish security would have said something.In the future, I'll just pay a little extra and stay elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r129073576-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>129073576</t>
+  </si>
+  <si>
+    <t>04/29/2012</t>
+  </si>
+  <si>
+    <t>Great Staff: But Spookie Security Guard.</t>
+  </si>
+  <si>
+    <t>Love the Hotel, location, next door food is great, morning snacks were great as well. The front desk help was super and room were slightly above average in regards to be clean and neat.However the security guard was a pest. He followed my wife twice to her room and the ice machine asking if she needed any company. I guess I should have escorted her everywhere she went. He was very creepy. Other than that the Hotel is a solid 3 star!!I will go back if the security guard is put on a Chain and Collar... Timmy</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r128544850-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128544850</t>
+  </si>
+  <si>
+    <t>04/24/2012</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 months and the experience was great! The clerks at the front desk were very nice and helpful with anything I needed to make my stay pleasent and welcome. The room was nice being I had a full kitchten and house keeping came by daily to make sure everything was clean and to my liking. The pool was cleaned regulary and the laundry room was always kept tidy and they were very inexpensive. Over all great experience!!</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r120672142-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120672142</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>safe and clean</t>
+  </si>
+  <si>
+    <t>I came early one morning and was able to go to my room. the room was very clean. I am a woman here by my self and I feel very safe. the staff is nice.if you have a problem they come right away to take care of it. It is a family orinanted place.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r119809997-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119809997</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>very pleasant stay with welcome staff</t>
+  </si>
+  <si>
+    <t>i stayed in this hotel last week visiting from new york for business trip ,my king size room was excellent with new furniture and nicely done decor ,the hot breakfast was very good nice cozy room ,i will recommend this hotel to business travelers Good keep it up james dishman</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r119799529-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119799529</t>
+  </si>
+  <si>
+    <t>Class Hotel Good Rates</t>
+  </si>
+  <si>
+    <t>To whom it may concern:This hotel is great I have stayed here in an extended stay after having an accident and needing to be close to medical care without high rates,bad mannered staff,unclean rooms and ahost of other things you could think of.The staff provides exceptional service with the manager constantly checking on things,the security is .great the guests look like your good people not the type that would cause you harm .A quiet place,good driving distance to galveston beach,race track medical center etc.Saving you money to spend elsewhere try it you may like it it is not home but close truck parking also .a business person recommendation</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r109798375-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>109798375</t>
+  </si>
+  <si>
+    <t>05/25/2011</t>
+  </si>
+  <si>
+    <t>Crap, pure Crap</t>
+  </si>
+  <si>
+    <t>I was staying at this hotel, with my mom, because we've just sold our house and we need a place to stay until I finished school.  Since this place was close by and there were other hotels that were too far, I decided on this one just for the conveience and just having a place to stay.   So we reserved for about 2 months--and boy, it was the worse 2 FREAKIN' months of our lives.   
+The room was rarely cleaned, service was either slow or just downright rude, the area was more or less unsafe because of some of the hotel guests (weary settled in), and rarely gotten any towels or other necessities TO TAKE A FREAKIN' BATH!   They always used excuses such as, "Oh, they're not cleaned yet" or "We need to dry them, we'll call you when they're ready".   Yeah, never and if they did,  it would be only two towels, one washrag, and a hand towel.  THAT'S IT!   
+The stove sucked because it wasn't ever cleaned, and it created a lot of smoke that would have left anyone choking.  It was that bad.   My mom never used the stove because of that.  We've ended up eating lean cuisines and what not, just to avoid the stove.   
+Everything just seemed totally wrong, and all of this could have been avoided if they actually did GOOD SERVICE AND HAD REASONABLE STAFF!   It was such an utter disappointment that I...I was staying at this hotel, with my mom, because we've just sold our house and we need a place to stay until I finished school.  Since this place was close by and there were other hotels that were too far, I decided on this one just for the conveience and just having a place to stay.   So we reserved for about 2 months--and boy, it was the worse 2 FREAKIN' months of our lives.   The room was rarely cleaned, service was either slow or just downright rude, the area was more or less unsafe because of some of the hotel guests (weary settled in), and rarely gotten any towels or other necessities TO TAKE A FREAKIN' BATH!   They always used excuses such as, "Oh, they're not cleaned yet" or "We need to dry them, we'll call you when they're ready".   Yeah, never and if they did,  it would be only two towels, one washrag, and a hand towel.  THAT'S IT!   The stove sucked because it wasn't ever cleaned, and it created a lot of smoke that would have left anyone choking.  It was that bad.   My mom never used the stove because of that.  We've ended up eating lean cuisines and what not, just to avoid the stove.   Everything just seemed totally wrong, and all of this could have been avoided if they actually did GOOD SERVICE AND HAD REASONABLE STAFF!   It was such an utter disappointment that I was so happy when we finally left to move to where I'm currently living now.  I would never recommend this hotel. Never.  And I don't wanna hear anything from the manager, because I know it's just going to be BS.  They're never going to fix the problems that anyone here has stated and what I've said.   They'll just continue it and make everyone miserable as a result.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was staying at this hotel, with my mom, because we've just sold our house and we need a place to stay until I finished school.  Since this place was close by and there were other hotels that were too far, I decided on this one just for the conveience and just having a place to stay.   So we reserved for about 2 months--and boy, it was the worse 2 FREAKIN' months of our lives.   
+The room was rarely cleaned, service was either slow or just downright rude, the area was more or less unsafe because of some of the hotel guests (weary settled in), and rarely gotten any towels or other necessities TO TAKE A FREAKIN' BATH!   They always used excuses such as, "Oh, they're not cleaned yet" or "We need to dry them, we'll call you when they're ready".   Yeah, never and if they did,  it would be only two towels, one washrag, and a hand towel.  THAT'S IT!   
+The stove sucked because it wasn't ever cleaned, and it created a lot of smoke that would have left anyone choking.  It was that bad.   My mom never used the stove because of that.  We've ended up eating lean cuisines and what not, just to avoid the stove.   
+Everything just seemed totally wrong, and all of this could have been avoided if they actually did GOOD SERVICE AND HAD REASONABLE STAFF!   It was such an utter disappointment that I...I was staying at this hotel, with my mom, because we've just sold our house and we need a place to stay until I finished school.  Since this place was close by and there were other hotels that were too far, I decided on this one just for the conveience and just having a place to stay.   So we reserved for about 2 months--and boy, it was the worse 2 FREAKIN' months of our lives.   The room was rarely cleaned, service was either slow or just downright rude, the area was more or less unsafe because of some of the hotel guests (weary settled in), and rarely gotten any towels or other necessities TO TAKE A FREAKIN' BATH!   They always used excuses such as, "Oh, they're not cleaned yet" or "We need to dry them, we'll call you when they're ready".   Yeah, never and if they did,  it would be only two towels, one washrag, and a hand towel.  THAT'S IT!   The stove sucked because it wasn't ever cleaned, and it created a lot of smoke that would have left anyone choking.  It was that bad.   My mom never used the stove because of that.  We've ended up eating lean cuisines and what not, just to avoid the stove.   Everything just seemed totally wrong, and all of this could have been avoided if they actually did GOOD SERVICE AND HAD REASONABLE STAFF!   It was such an utter disappointment that I was so happy when we finally left to move to where I'm currently living now.  I would never recommend this hotel. Never.  And I don't wanna hear anything from the manager, because I know it's just going to be BS.  They're never going to fix the problems that anyone here has stated and what I've said.   They'll just continue it and make everyone miserable as a result.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r72332640-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>72332640</t>
+  </si>
+  <si>
+    <t>07/25/2010</t>
+  </si>
+  <si>
+    <t>Needs a lot of maintenance</t>
+  </si>
+  <si>
+    <t>We had reservations but did not end up staying here.  We looked at several of the rooms and they all were unacceptable.  Things missing or not clean.  For the rate they want, they should be nice rooms.  They are working on some of them but we were told they were mostly just painting and they need much more than that!  The pool appeared nice.  The front desk clerk was pleasant but reserved.  Very few guests in the parking lot, especially compared to other extended stay type properties in the area.  Our car ended up at one of the other properties too.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>HJ16520, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded August 16, 2010</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2010</t>
+  </si>
+  <si>
+    <t>We had reservations but did not end up staying here.  We looked at several of the rooms and they all were unacceptable.  Things missing or not clean.  For the rate they want, they should be nice rooms.  They are working on some of them but we were told they were mostly just painting and they need much more than that!  The pool appeared nice.  The front desk clerk was pleasant but reserved.  Very few guests in the parking lot, especially compared to other extended stay type properties in the area.  Our car ended up at one of the other properties too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r66113513-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>66113513</t>
+  </si>
+  <si>
+    <t>06/01/2010</t>
+  </si>
+  <si>
+    <t>I do not understand these out of date reviews</t>
+  </si>
+  <si>
+    <t>Over the past three years I have stayed for extended periods at this hotel, and I have had none of the problems described in the reviews. The hotel is well managed and houskeeping does a good job.  All staff will do whatever they can to ensure that you have a pleasant experience.  Sometimes I feel that some people will complain about anything just to get a coupon !  Why is there a review here dated 2004 ?  What is that about ? The hotel has probably changed owners and certainly mangers since then.  This hotel is adjacent to a very large church organisation, and visitors to the church come from all around the World and stay at this hotel without problems, even with the adult facility ( Now closed ) nearby.  Tripadvisor should eradicate the old reviews, and let the hotel be judged by the new managementMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>Over the past three years I have stayed for extended periods at this hotel, and I have had none of the problems described in the reviews. The hotel is well managed and houskeeping does a good job.  All staff will do whatever they can to ensure that you have a pleasant experience.  Sometimes I feel that some people will complain about anything just to get a coupon !  Why is there a review here dated 2004 ?  What is that about ? The hotel has probably changed owners and certainly mangers since then.  This hotel is adjacent to a very large church organisation, and visitors to the church come from all around the World and stay at this hotel without problems, even with the adult facility ( Now closed ) nearby.  Tripadvisor should eradicate the old reviews, and let the hotel be judged by the new managementMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r26817698-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>26817698</t>
+  </si>
+  <si>
+    <t>03/25/2009</t>
+  </si>
+  <si>
+    <t>Avoid this place unless you can get a $29.99 special rate!</t>
+  </si>
+  <si>
+    <t>I made the mistake of booking this via Hotwire (site picks your hotel) thinking I'd get a decent economy hotel/motel.  I've had luck with Comfort Inn and La Quinta...but for $79/night, this Howard Johnson was HORRIBLE!If you're planning on a boys night out and want to go to a strip club, this may be your place since there is a club next door.  The rooms smell musty and smoky and the beds are beyond ready to be retired (you could hear and feel the rusty sounding bed springs, not a comfortable place for sleeping.)  You couldn't tell until you were standing in the shower that there was mold on the bottom of the shower curtain.  The bedspread and sheets had burn holes.  At $79 it is a total rip off!I've learned my lesson and will happily pay an extra $20 bucks for a Hampton Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>HJ16520, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded March 31, 2010</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2010</t>
+  </si>
+  <si>
+    <t>I made the mistake of booking this via Hotwire (site picks your hotel) thinking I'd get a decent economy hotel/motel.  I've had luck with Comfort Inn and La Quinta...but for $79/night, this Howard Johnson was HORRIBLE!If you're planning on a boys night out and want to go to a strip club, this may be your place since there is a club next door.  The rooms smell musty and smoky and the beds are beyond ready to be retired (you could hear and feel the rusty sounding bed springs, not a comfortable place for sleeping.)  You couldn't tell until you were standing in the shower that there was mold on the bottom of the shower curtain.  The bedspread and sheets had burn holes.  At $79 it is a total rip off!I've learned my lesson and will happily pay an extra $20 bucks for a Hampton Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r14551069-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>14551069</t>
+  </si>
+  <si>
+    <t>03/26/2008</t>
+  </si>
+  <si>
+    <t>Our room was never cleaned and trash never taken out in the 4 days we stayed</t>
+  </si>
+  <si>
+    <t>We had to quickly book a hotel because of a death in the family. We traveled almost 12 hours in the car from Kansas. Unfortunately there was a huge government convention at the same time so all hotels I internet searched &amp; called in advance before this one were booked. The Howard Johnson was the only hotel with rooms--and now I know why. I dubbed it the "detox inn". Not to make fun of people with serious drug or alcohol problems. This was a pay up front in full--100% NON REFUNDABLE room via the Travelocity website. I was weary, but desperate because we had a funeral to get to. We stayed from Saturday evening through Wed. morning. Not once was our room cleaned, however the maid did come in as our television was changed to the Spanish channel. I'm sure all they did was go through our belongings. One thing is for sure, they did NOT do their job. My husband found a chest hair (we assume that is what is was??) in one of the styrofoam cups left near the coffee maker. Obviously I was not about to brew a cup and drink out of their supplied cups. My daughter also found that her sheets on the bed had cigarette burns and was nervous to sleep in the bed. One night we couldn't get into our room. Our key didn't work. The front desk programmed the key 4 more...We had to quickly book a hotel because of a death in the family. We traveled almost 12 hours in the car from Kansas. Unfortunately there was a huge government convention at the same time so all hotels I internet searched &amp; called in advance before this one were booked. The Howard Johnson was the only hotel with rooms--and now I know why. I dubbed it the "detox inn". Not to make fun of people with serious drug or alcohol problems. This was a pay up front in full--100% NON REFUNDABLE room via the Travelocity website. I was weary, but desperate because we had a funeral to get to. We stayed from Saturday evening through Wed. morning. Not once was our room cleaned, however the maid did come in as our television was changed to the Spanish channel. I'm sure all they did was go through our belongings. One thing is for sure, they did NOT do their job. My husband found a chest hair (we assume that is what is was??) in one of the styrofoam cups left near the coffee maker. Obviously I was not about to brew a cup and drink out of their supplied cups. My daughter also found that her sheets on the bed had cigarette burns and was nervous to sleep in the bed. One night we couldn't get into our room. Our key didn't work. The front desk programmed the key 4 more times without success. Finally, they used a master key to let us in. They went back and tried to program the key for a 5th time, and it finally worked. I was tired, it was midnight and here we walk into a room that had not been cleaned. Our trash was also NEVER taken out the whole time we were there. We had to call every night to the front desk to get towels since our room was never cleaned. They heard our complaints every night, but nothing was done about it. So the last night there when I arrived back to the hotel, emotionally and physically exhausted from my grandma's funeral, we opened the door to find our room (once again) not cleaned. At that point I said a few choice words and my husband had to calm me down. I phoned the evening receptionist to ask when the manager would be in. . .not until the following morning. When I awoke, I phoned the manager explained everything that happened. They apologized and offered to give us a discounted rate should we ever be in town again. I responded with "I appreciate your offer, but I will NEVER stay in your hotel again", and promptly hung up. I am no prima donna by any means. I grew up very poor and mostly survived on ramen noodles. For me to complain about this place should be taken seriously. DO NOT STAY HERE. For $89/ night it was the worst experience I ever had.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>HJ16520, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded March 24, 2010</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2010</t>
+  </si>
+  <si>
+    <t>We had to quickly book a hotel because of a death in the family. We traveled almost 12 hours in the car from Kansas. Unfortunately there was a huge government convention at the same time so all hotels I internet searched &amp; called in advance before this one were booked. The Howard Johnson was the only hotel with rooms--and now I know why. I dubbed it the "detox inn". Not to make fun of people with serious drug or alcohol problems. This was a pay up front in full--100% NON REFUNDABLE room via the Travelocity website. I was weary, but desperate because we had a funeral to get to. We stayed from Saturday evening through Wed. morning. Not once was our room cleaned, however the maid did come in as our television was changed to the Spanish channel. I'm sure all they did was go through our belongings. One thing is for sure, they did NOT do their job. My husband found a chest hair (we assume that is what is was??) in one of the styrofoam cups left near the coffee maker. Obviously I was not about to brew a cup and drink out of their supplied cups. My daughter also found that her sheets on the bed had cigarette burns and was nervous to sleep in the bed. One night we couldn't get into our room. Our key didn't work. The front desk programmed the key 4 more...We had to quickly book a hotel because of a death in the family. We traveled almost 12 hours in the car from Kansas. Unfortunately there was a huge government convention at the same time so all hotels I internet searched &amp; called in advance before this one were booked. The Howard Johnson was the only hotel with rooms--and now I know why. I dubbed it the "detox inn". Not to make fun of people with serious drug or alcohol problems. This was a pay up front in full--100% NON REFUNDABLE room via the Travelocity website. I was weary, but desperate because we had a funeral to get to. We stayed from Saturday evening through Wed. morning. Not once was our room cleaned, however the maid did come in as our television was changed to the Spanish channel. I'm sure all they did was go through our belongings. One thing is for sure, they did NOT do their job. My husband found a chest hair (we assume that is what is was??) in one of the styrofoam cups left near the coffee maker. Obviously I was not about to brew a cup and drink out of their supplied cups. My daughter also found that her sheets on the bed had cigarette burns and was nervous to sleep in the bed. One night we couldn't get into our room. Our key didn't work. The front desk programmed the key 4 more times without success. Finally, they used a master key to let us in. They went back and tried to program the key for a 5th time, and it finally worked. I was tired, it was midnight and here we walk into a room that had not been cleaned. Our trash was also NEVER taken out the whole time we were there. We had to call every night to the front desk to get towels since our room was never cleaned. They heard our complaints every night, but nothing was done about it. So the last night there when I arrived back to the hotel, emotionally and physically exhausted from my grandma's funeral, we opened the door to find our room (once again) not cleaned. At that point I said a few choice words and my husband had to calm me down. I phoned the evening receptionist to ask when the manager would be in. . .not until the following morning. When I awoke, I phoned the manager explained everything that happened. They apologized and offered to give us a discounted rate should we ever be in town again. I responded with "I appreciate your offer, but I will NEVER stay in your hotel again", and promptly hung up. I am no prima donna by any means. I grew up very poor and mostly survived on ramen noodles. For me to complain about this place should be taken seriously. DO NOT STAY HERE. For $89/ night it was the worst experience I ever had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r8218682-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8218682</t>
+  </si>
+  <si>
+    <t>07/21/2007</t>
+  </si>
+  <si>
+    <t>Worst hotel stay yet!</t>
+  </si>
+  <si>
+    <t>We had always had decent experiences with Howard Johnson hotels. Then we made the mistake of staying at this rat hole.Upon arrival, the room smelled like a cat had peed all over. It didn't take long for us to realize that the smell was coming from the air conditioner. We requested a new room. The only available room was a room that smelled badly of smoke. Since we were traveling with a 2 month old, that was no option. And sleeping in the car wasn't either (though it would have been as comfortable). The manager on duty did try to bring in an air freshener, but unless you spray it up your nose, the smell is not going away. We complained to the hotel at the time of checkout (and got a "sorry" only). We also called the hotel to speak with the General Manager after returning from our trip and got no returned call. In all of our travels, we've endured a lot without ever complaining. In fact, I don't ever recall complaining to a hotel.In this review, I didn't even get to the hard bed, the dirty bathroom, etc. The final straw: not only were we charged once, but they charged us twice for the same room. It took more than 2 months to get one of the charges refunded. If this hotel were free, we still would not go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>We had always had decent experiences with Howard Johnson hotels. Then we made the mistake of staying at this rat hole.Upon arrival, the room smelled like a cat had peed all over. It didn't take long for us to realize that the smell was coming from the air conditioner. We requested a new room. The only available room was a room that smelled badly of smoke. Since we were traveling with a 2 month old, that was no option. And sleeping in the car wasn't either (though it would have been as comfortable). The manager on duty did try to bring in an air freshener, but unless you spray it up your nose, the smell is not going away. We complained to the hotel at the time of checkout (and got a "sorry" only). We also called the hotel to speak with the General Manager after returning from our trip and got no returned call. In all of our travels, we've endured a lot without ever complaining. In fact, I don't ever recall complaining to a hotel.In this review, I didn't even get to the hard bed, the dirty bathroom, etc. The final straw: not only were we charged once, but they charged us twice for the same room. It took more than 2 months to get one of the charges refunded. If this hotel were free, we still would not go back.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1606,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1638,3977 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>95</v>
+      </c>
+      <c r="X11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>170</v>
+      </c>
+      <c r="O23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>170</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
+        <v>178</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>170</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>180</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>185</v>
+      </c>
+      <c r="J27" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>188</v>
+      </c>
+      <c r="J28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" t="s">
+        <v>190</v>
+      </c>
+      <c r="L28" t="s">
+        <v>191</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" t="s">
+        <v>193</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" t="s">
+        <v>199</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>203</v>
+      </c>
+      <c r="J30" t="s">
+        <v>204</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>211</v>
+      </c>
+      <c r="J32" t="s">
+        <v>212</v>
+      </c>
+      <c r="K32" t="s">
+        <v>213</v>
+      </c>
+      <c r="L32" t="s">
+        <v>214</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>215</v>
+      </c>
+      <c r="O32" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>217</v>
+      </c>
+      <c r="J33" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>200</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>215</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" t="s">
+        <v>225</v>
+      </c>
+      <c r="L35" t="s">
+        <v>226</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>215</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>228</v>
+      </c>
+      <c r="J36" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>215</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>233</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s">
+        <v>236</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>215</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" t="s">
+        <v>240</v>
+      </c>
+      <c r="K38" t="s">
+        <v>241</v>
+      </c>
+      <c r="L38" t="s">
+        <v>242</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>244</v>
+      </c>
+      <c r="J39" t="s">
+        <v>245</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>246</v>
+      </c>
+      <c r="O39" t="s">
+        <v>103</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>248</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>246</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" t="s">
+        <v>252</v>
+      </c>
+      <c r="K41" t="s">
+        <v>253</v>
+      </c>
+      <c r="L41" t="s">
+        <v>254</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>255</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>257</v>
+      </c>
+      <c r="J42" t="s">
+        <v>258</v>
+      </c>
+      <c r="K42" t="s">
+        <v>259</v>
+      </c>
+      <c r="L42" t="s">
+        <v>260</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>263</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>264</v>
+      </c>
+      <c r="J43" t="s">
+        <v>265</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>266</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>267</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>268</v>
+      </c>
+      <c r="J44" t="s">
+        <v>269</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>270</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>271</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>272</v>
+      </c>
+      <c r="J45" t="s">
+        <v>273</v>
+      </c>
+      <c r="K45" t="s">
+        <v>274</v>
+      </c>
+      <c r="L45" t="s">
+        <v>275</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>270</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>276</v>
+      </c>
+      <c r="X45" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>279</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>280</v>
+      </c>
+      <c r="J46" t="s">
+        <v>281</v>
+      </c>
+      <c r="K46" t="s">
+        <v>282</v>
+      </c>
+      <c r="L46" t="s">
+        <v>283</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>284</v>
+      </c>
+      <c r="X46" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>287</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>288</v>
+      </c>
+      <c r="J47" t="s">
+        <v>289</v>
+      </c>
+      <c r="K47" t="s">
+        <v>290</v>
+      </c>
+      <c r="L47" t="s">
+        <v>291</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>292</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>293</v>
+      </c>
+      <c r="X47" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>296</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>297</v>
+      </c>
+      <c r="J48" t="s">
+        <v>298</v>
+      </c>
+      <c r="K48" t="s">
+        <v>299</v>
+      </c>
+      <c r="L48" t="s">
+        <v>300</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>301</v>
+      </c>
+      <c r="O48" t="s">
+        <v>103</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>302</v>
+      </c>
+      <c r="X48" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>305</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>306</v>
+      </c>
+      <c r="J49" t="s">
+        <v>307</v>
+      </c>
+      <c r="K49" t="s">
+        <v>308</v>
+      </c>
+      <c r="L49" t="s">
+        <v>309</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>310</v>
+      </c>
+      <c r="X49" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>314</v>
+      </c>
+      <c r="J50" t="s">
+        <v>315</v>
+      </c>
+      <c r="K50" t="s">
+        <v>316</v>
+      </c>
+      <c r="L50" t="s">
+        <v>317</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>318</v>
+      </c>
+      <c r="O50" t="s">
+        <v>59</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>321</v>
+      </c>
+      <c r="J51" t="s">
+        <v>322</v>
+      </c>
+      <c r="K51" t="s">
+        <v>323</v>
+      </c>
+      <c r="L51" t="s">
+        <v>324</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>325</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>326</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>327</v>
+      </c>
+      <c r="J52" t="s">
+        <v>328</v>
+      </c>
+      <c r="K52" t="s">
+        <v>329</v>
+      </c>
+      <c r="L52" t="s">
+        <v>330</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>331</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>332</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>333</v>
+      </c>
+      <c r="J53" t="s">
+        <v>334</v>
+      </c>
+      <c r="K53" t="s">
+        <v>335</v>
+      </c>
+      <c r="L53" t="s">
+        <v>336</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s">
+        <v>193</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>338</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>339</v>
+      </c>
+      <c r="J54" t="s">
+        <v>340</v>
+      </c>
+      <c r="K54" t="s">
+        <v>341</v>
+      </c>
+      <c r="L54" t="s">
+        <v>342</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>343</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>344</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>345</v>
+      </c>
+      <c r="J55" t="s">
+        <v>340</v>
+      </c>
+      <c r="K55" t="s">
+        <v>346</v>
+      </c>
+      <c r="L55" t="s">
+        <v>347</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>343</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>348</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>349</v>
+      </c>
+      <c r="J56" t="s">
+        <v>350</v>
+      </c>
+      <c r="K56" t="s">
+        <v>351</v>
+      </c>
+      <c r="L56" t="s">
+        <v>352</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>354</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>355</v>
+      </c>
+      <c r="J57" t="s">
+        <v>356</v>
+      </c>
+      <c r="K57" t="s">
+        <v>357</v>
+      </c>
+      <c r="L57" t="s">
+        <v>358</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>359</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>360</v>
+      </c>
+      <c r="X57" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>363</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>364</v>
+      </c>
+      <c r="J58" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58" t="s">
+        <v>366</v>
+      </c>
+      <c r="L58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>360</v>
+      </c>
+      <c r="X58" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>370</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>371</v>
+      </c>
+      <c r="J59" t="s">
+        <v>372</v>
+      </c>
+      <c r="K59" t="s">
+        <v>373</v>
+      </c>
+      <c r="L59" t="s">
+        <v>374</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>375</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>376</v>
+      </c>
+      <c r="X59" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>379</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>380</v>
+      </c>
+      <c r="J60" t="s">
+        <v>381</v>
+      </c>
+      <c r="K60" t="s">
+        <v>382</v>
+      </c>
+      <c r="L60" t="s">
+        <v>383</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>384</v>
+      </c>
+      <c r="O60" t="s">
+        <v>59</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>385</v>
+      </c>
+      <c r="X60" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>389</v>
+      </c>
+      <c r="J61" t="s">
+        <v>390</v>
+      </c>
+      <c r="K61" t="s">
+        <v>391</v>
+      </c>
+      <c r="L61" t="s">
+        <v>392</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>393</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_610.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_610.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="610">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r583867643-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>277895</t>
+  </si>
+  <si>
+    <t>583867643</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>It’s Fine in a Pinch</t>
+  </si>
+  <si>
+    <t>We came to Galveston for Memorial Day weekend after the tropical storm forced us to cancel our Biloxi trip last minute. This was the closest room I could find that was in budget and allowed dogs. With that in mind, my expectations were pretty low. It met our basic needs for sure. I would consider it a step above camping. We didn’t see any bugs at all. The patrons we came in contact with were nice enough. We really only stayed there to shower and sleep. I will say the best parts were that it had plenty of hot water and the A/C worked great! I’ve stayed at Le Pavillon in New Orleans for $400 night and had neither of those needs met. If you’re looking for a place to meet basic needs at the right price, this really is a decent option right off the interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We came to Galveston for Memorial Day weekend after the tropical storm forced us to cancel our Biloxi trip last minute. This was the closest room I could find that was in budget and allowed dogs. With that in mind, my expectations were pretty low. It met our basic needs for sure. I would consider it a step above camping. We didn’t see any bugs at all. The patrons we came in contact with were nice enough. We really only stayed there to shower and sleep. I will say the best parts were that it had plenty of hot water and the A/C worked great! I’ve stayed at Le Pavillon in New Orleans for $400 night and had neither of those needs met. If you’re looking for a place to meet basic needs at the right price, this really is a decent option right off the interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r489402811-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489402811</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Looks can be decieving</t>
+  </si>
+  <si>
+    <t>This hotel was alright but staying here for a period of time you see what really goes on. The rates are reasonable if your doing weeks to a month at a time. The bad thing is at night its a different atmoshphere I was approached several times if I wanted buy drugs. There's a lot homeless people hanging around on the property. Like I said if you keep to yourself and just go from your car to your room then your good but if your one like me who needs to get out walk around just be aware of your surroundings.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r456034565-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>277895</t>
-  </si>
-  <si>
     <t>456034565</t>
   </si>
   <si>
@@ -195,9 +234,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Lady at front desk (didn't catch her name) needs to learn to speak up. Room 228 was cleanish but VERY cramped. Should have only had a twin size bed. Not a full size bed. There might have been a picture on the wall at some time. Only evidence was a couple pieces of double-sided sticky tape on wall. Fridge &amp; microwave were old &amp; rusty. Room phone had almost all buttons missing. Nightstand lampshade was falling apart. Cabinet/drawers for TV &amp; clothes was beat up &amp; scratched. One of the drawers had been fixed with screws visible on front of drawer. One of the pull handles on sliding door to close in front of TV was missing. Coffee maker was old &amp; yucky, no pot. There were no coffee cups. Only one tiny little pot for cooking. Lower kitchen cabinet doors stayed slightly open &amp; had grease residue. I guess this is what we get for asking to check in early &amp; use 10% email discount for online reservation. We stay at Motel 6 or Studio 6 often. We usually know what to expect.More</t>
   </si>
   <si>
@@ -217,6 +253,54 @@
   </si>
   <si>
     <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r400462570-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400462570</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>HORRIBLE!!!</t>
+  </si>
+  <si>
+    <t>Dirty, smelly, roach infested, dingy rooms. Checked in, noticed overflowing trash everywhere on the way to the room. Left and came back after attending a function, found some guys smoking weed on the staircase so had to take their stinky elevator. Brought take out to eat and by the time I washed my hands, roaches were crawling all over my food. Nastiest, most traumatizing experience of my life!!!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r361777317-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361777317</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Roaches!</t>
+  </si>
+  <si>
+    <t>At first sight this place looks good. I was very wrong thus place has a Roach problem. The floors felt dirty, the tub had long hair, I have very short hair. The AC didn't work correctly, it kept shutting off.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Studio 6 Houston - Clear Lake, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>At first sight this place looks good. I was very wrong thus place has a Roach problem. The floors felt dirty, the tub had long hair, I have very short hair. The AC didn't work correctly, it kept shutting off.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r349635437-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
@@ -289,6 +373,51 @@
 Something you get with a budget type hotel and was a nice touch my family really took advantage of that while I worked. I took advantage of the onsite guest laundry which saved from going to the laundromat and the Staff was always very helpful the Managent Timothy and Tami were helpful in every way they could be alway greeting me with a smile and knowing who I was and using my name it's a dying attribute in he hospitality business always making we feel welcomed. I would recommend this hotel to a one that...I was in need of an extended stay hotel in the Houston Market and came across this hotel. I was in the area for 6 months and found this place to be the best deal in town. My room was clean and comfortable with anew mattress. The hotel was undergoing renovations and was asked if I wanted to move to one of he new rooms as they were ready to start the one I was in. I was really impressed with the new room it had new paint and new bed linens  and they replaced carpets with wood flooring I was blown away with how nice my new room looked new countertops in kitchen and bath it was top notch for what I was paying! My family came for a visit while I was working in the area and loved the pool that is notSomething you get with a budget type hotel and was a nice touch my family really took advantage of that while I worked. I took advantage of the onsite guest laundry which saved from going to the laundromat and the Staff was always very helpful the Managent Timothy and Tami were helpful in every way they could be alway greeting me with a smile and knowing who I was and using my name it's a dying attribute in he hospitality business always making we feel welcomed. I would recommend this hotel to a one that wants an affordable, clean hotel with a kitchen because it gets expense to eat out every night and having the full kitchen with all the cooking and eating utensils including a toaster made it so easy for me to make most of my meals there and enable me to save some money while working out of town. Thank you all again I really enjoyed my stay!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r270640373-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>270640373</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>I recently stayed here at Howard Johnson and had a nice experience, the place is in expensive yet clean and the staff were all very friendly and enjoyable,  I will definantly be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Timothy M, Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded May 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2015</t>
+  </si>
+  <si>
+    <t>I recently stayed here at Howard Johnson and had a nice experience, the place is in expensive yet clean and the staff were all very friendly and enjoyable,  I will definantly be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r265966609-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265966609</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What a joke </t>
+  </si>
+  <si>
+    <t>We  travel  all over the place and this is got to be one of the worst motels . We have stayed at. We thought it was a Howard Johnson's found out that it is a  motel 6 . I went to get clean towels because they did not clean our room found out .they  only clean the rooms once a week on Wednesdays so if you're going to stay at this Motel make sure you come in on Wednesday not Monday or Tuesday because the rooms are dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>We  travel  all over the place and this is got to be one of the worst motels . We have stayed at. We thought it was a Howard Johnson's found out that it is a  motel 6 . I went to get clean towels because they did not clean our room found out .they  only clean the rooms once a week on Wednesdays so if you're going to stay at this Motel make sure you come in on Wednesday not Monday or Tuesday because the rooms are dirty.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r265537316-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -304,15 +433,6 @@
     <t>I had a very good nights stay in one of thier newly remodeled rooms. I was very happy with the front desk service as well. I would stay there again if I am in the Houston area. It is easy to get to the hotel too, but not too close to the freeway as to get alot of truck noise.MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
-    <t>Timothy M, Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded May 28, 2015</t>
-  </si>
-  <si>
-    <t>Responded May 28, 2015</t>
-  </si>
-  <si>
     <t>I had a very good nights stay in one of thier newly remodeled rooms. I was very happy with the front desk service as well. I would stay there again if I am in the Houston area. It is easy to get to the hotel too, but not too close to the freeway as to get alot of truck noise.More</t>
   </si>
   <si>
@@ -355,6 +475,42 @@
     <t>Room 207...The room was tight with just two double beds..The bed sheets and bedspread needed to be thrown out...the room was absolutely filthy. On our third night, low and behold the roaches came out to play!! Just nasty. Called the manager to come and verify this himself because when my husband went down to retrieve fresh towels and toilet paper, he informed the front clerk and manager of the roach problem, in which they seemed completely shocked...RIGHT... I will say this, after the manager looked at the roaches crawling all around the refrigerator, he promised to refund us 2 nights stay, although it hasn't been refunded yet. Needless to say we will not recommend this hotel to anyone.        S. Lewis More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r260798407-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260798407</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Not the greatest</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel was the price. In retrospect I should have paid a little more for  better quality. The room was small and walls thin. The maid service was nonexistent. Bath Tub was very slippery. I asked the front desk for a mat for the tub and was handed a towel. The front desk is where you had to go if you needed anything. Probably the worst part of this stay were the other patrons. There had to be a lot of welfare long term people staying there. There was one man who appeared to live on the floor next to the ice machine. I avoided getting ice. Sorry Howard Johnsons but I plan to avoid you in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only good thing about this hotel was the price. In retrospect I should have paid a little more for  better quality. The room was small and walls thin. The maid service was nonexistent. Bath Tub was very slippery. I asked the front desk for a mat for the tub and was handed a towel. The front desk is where you had to go if you needed anything. Probably the worst part of this stay were the other patrons. There had to be a lot of welfare long term people staying there. There was one man who appeared to live on the floor next to the ice machine. I avoided getting ice. Sorry Howard Johnsons but I plan to avoid you in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r260606537-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260606537</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Bad Bad Management</t>
+  </si>
+  <si>
+    <t>I got to the motel around 4pm and had a reservation but was told my room was not ready and would be around 6pm before they could give me a room. At around 6:20pm I got my first room when I arrived at the room it was still dirty towels in the bath tub and food everywhere I went to the front desk and the desk clerk sent me to the second room when I arrived at this room it had a young couple in it and they were quite shocked when I walked in on them. Went back to the front desk again and a different clerk took a real attitude with me as if it was my fault. They gave me another room and when I arrived at it it was kind of clean no towels bed was very sloppy and pillows had spots on them the refrigerator had old food and beer in it. The T.V. was the old tube type and did not work well I was told at the desk that the owner is installing new flat screens soon. I left for dinner and when I came back my door was standing open and I checked it when I left and it was locked. I went to the front to tell the desk clerk and never could find them waited about 15 min. no one around. Around 1:30 am a knock was at my door...I got to the motel around 4pm and had a reservation but was told my room was not ready and would be around 6pm before they could give me a room. At around 6:20pm I got my first room when I arrived at the room it was still dirty towels in the bath tub and food everywhere I went to the front desk and the desk clerk sent me to the second room when I arrived at this room it had a young couple in it and they were quite shocked when I walked in on them. Went back to the front desk again and a different clerk took a real attitude with me as if it was my fault. They gave me another room and when I arrived at it it was kind of clean no towels bed was very sloppy and pillows had spots on them the refrigerator had old food and beer in it. The T.V. was the old tube type and did not work well I was told at the desk that the owner is installing new flat screens soon. I left for dinner and when I came back my door was standing open and I checked it when I left and it was locked. I went to the front to tell the desk clerk and never could find them waited about 15 min. no one around. Around 1:30 am a knock was at my door it was a young lady looked like about 16 years old wanting to know if I needed some company. I called the desk and ask for the manager and was told he was not to be disturbed. I did send my complaints to Wyndham about my bad experience. They need to get a good older manager that is firm and has some control of the staff and the people hanging out at this motel. It is a great location and really could be a good motel with some good management and a little bit of fixing up and some modern T.V.'s and bed coverings and curtains. This is just my opinion on the place I stay in a lot of motels in a years time and see a lot of things but I believe this took the cake. Get a new manager ASAPMoreShow less</t>
+  </si>
+  <si>
+    <t>I got to the motel around 4pm and had a reservation but was told my room was not ready and would be around 6pm before they could give me a room. At around 6:20pm I got my first room when I arrived at the room it was still dirty towels in the bath tub and food everywhere I went to the front desk and the desk clerk sent me to the second room when I arrived at this room it had a young couple in it and they were quite shocked when I walked in on them. Went back to the front desk again and a different clerk took a real attitude with me as if it was my fault. They gave me another room and when I arrived at it it was kind of clean no towels bed was very sloppy and pillows had spots on them the refrigerator had old food and beer in it. The T.V. was the old tube type and did not work well I was told at the desk that the owner is installing new flat screens soon. I left for dinner and when I came back my door was standing open and I checked it when I left and it was locked. I went to the front to tell the desk clerk and never could find them waited about 15 min. no one around. Around 1:30 am a knock was at my door...I got to the motel around 4pm and had a reservation but was told my room was not ready and would be around 6pm before they could give me a room. At around 6:20pm I got my first room when I arrived at the room it was still dirty towels in the bath tub and food everywhere I went to the front desk and the desk clerk sent me to the second room when I arrived at this room it had a young couple in it and they were quite shocked when I walked in on them. Went back to the front desk again and a different clerk took a real attitude with me as if it was my fault. They gave me another room and when I arrived at it it was kind of clean no towels bed was very sloppy and pillows had spots on them the refrigerator had old food and beer in it. The T.V. was the old tube type and did not work well I was told at the desk that the owner is installing new flat screens soon. I left for dinner and when I came back my door was standing open and I checked it when I left and it was locked. I went to the front to tell the desk clerk and never could find them waited about 15 min. no one around. Around 1:30 am a knock was at my door it was a young lady looked like about 16 years old wanting to know if I needed some company. I called the desk and ask for the manager and was told he was not to be disturbed. I did send my complaints to Wyndham about my bad experience. They need to get a good older manager that is firm and has some control of the staff and the people hanging out at this motel. It is a great location and really could be a good motel with some good management and a little bit of fixing up and some modern T.V.'s and bed coverings and curtains. This is just my opinion on the place I stay in a lot of motels in a years time and see a lot of things but I believe this took the cake. Get a new manager ASAPMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r260213163-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -400,15 +556,27 @@
     <t>The room was dirty and the sheets had burn holes and stains on them. We accidentally left our bottle of whiskey in the freezer and when I called to ask about it we were told that housekeeping didn't find it. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r257290817-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257290817</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r254748706-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>254748706</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r254741400-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
     <t>254741400</t>
   </si>
   <si>
-    <t>02/17/2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r253221039-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -448,6 +616,48 @@
     <t>Worth the price, though could be better. The room in general is pretty small. Room kitchenette was clean. Beds were not great, sheets were not tucked tight when we arrived as you would expect. Bathroom was ok, pretty smallBreakfast room was TOO small! This was a disappointment. 5  small two seater tables packed in a tiny room. Even though the website says "Hot breakfast", it isnt. Do not expect sausage, gravy, eggs or anything. As far as I know, tea coffee, bread, butter and orange juice with a microwave in the room does not qualify as Hot Breakfast. Though no complains with the food, everything was fresh. Parking was great, plenty of spots. People at the hotel in general were nice. . More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r248153858-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248153858</t>
+  </si>
+  <si>
+    <t>01/07/2015</t>
+  </si>
+  <si>
+    <t>Good price and location</t>
+  </si>
+  <si>
+    <t>Good price for the room. The family and I didn't have breakfast  due to waking up late, but it's in a location where there's places to eat at. The only thing that our room needed was a little more cleaning and probably a new microwave because the inside looked old and stained pretty bad. But overall.... I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r242409968-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242409968</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Nice, comfortable, basic stay</t>
+  </si>
+  <si>
+    <t>This is a good, basic hotel with an excellent, friendly staff. Rooms are nice and clean, including the kitchenette area (which can be a tricky space, to be sure). We had a couple of special requests during our stay (early check-in, extra towels) and the staff were very accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>HJ16520, Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded December 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2014</t>
+  </si>
+  <si>
+    <t>This is a good, basic hotel with an excellent, friendly staff. Rooms are nice and clean, including the kitchenette area (which can be a tricky space, to be sure). We had a couple of special requests during our stay (early check-in, extra towels) and the staff were very accommodating.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r238841120-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -457,9 +667,6 @@
     <t>11/08/2014</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r238733246-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -481,6 +688,39 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r231055413-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231055413</t>
+  </si>
+  <si>
+    <t>09/26/2014</t>
+  </si>
+  <si>
+    <t>Like a scary minimum security prison</t>
+  </si>
+  <si>
+    <t>I bought an unrefundable night here sight unseen based on the positive reviews. I realized I'd made a horrible mistake in doing so as we drove past the squeegee man detritus, through a gas station to the bulletproof window where we had to check in.There is only a single central elevator and stairwell to get to the upper floors. Odd people were just sitting in their cars in the parking lot and staring. This is an awful place for a family with children and we hustled them into the room as quickly as possible. The light from the lot was so bright even through the curtain I had to turn myself around to sleep. Everything is on lockdown, including the breakfast room which only offered sad donuts. We skipped that and fled as soon as the kids woke up and were ready to go.Shame on you other reviewers describing this as acceptable. -- this is no place for tourists or families. We felt really uncomfortable and unsafe here .MoreShow less</t>
+  </si>
+  <si>
+    <t>I bought an unrefundable night here sight unseen based on the positive reviews. I realized I'd made a horrible mistake in doing so as we drove past the squeegee man detritus, through a gas station to the bulletproof window where we had to check in.There is only a single central elevator and stairwell to get to the upper floors. Odd people were just sitting in their cars in the parking lot and staring. This is an awful place for a family with children and we hustled them into the room as quickly as possible. The light from the lot was so bright even through the curtain I had to turn myself around to sleep. Everything is on lockdown, including the breakfast room which only offered sad donuts. We skipped that and fled as soon as the kids woke up and were ready to go.Shame on you other reviewers describing this as acceptable. -- this is no place for tourists or families. We felt really uncomfortable and unsafe here .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r231025067-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231025067</t>
+  </si>
+  <si>
+    <t>Scary minimum security prison</t>
+  </si>
+  <si>
+    <t>We paid for this motel in advance based on reviews and realized what a horrible mistake we'd made as we drove past squeegee man detritus and through a gas station up to check in at a bullet proof security window. There is only a single central elevator to get to the top floors and creepy people who just sat in their cars in the lot.We were traveling with our children and felt really uncomfortable having them at this motel. Despite the blinds the glaring articulate light was so strong I had to turn myself around on the bed. Everything is locked down so you need your card key to access it, including the breakfast room. We didn't bother with breakfast, which consisted of some donuts. We just expressed our concerns to the manager and bolted as soon as our kids were up.MoreShow less</t>
+  </si>
+  <si>
+    <t>We paid for this motel in advance based on reviews and realized what a horrible mistake we'd made as we drove past squeegee man detritus and through a gas station up to check in at a bullet proof security window. There is only a single central elevator to get to the top floors and creepy people who just sat in their cars in the lot.We were traveling with our children and felt really uncomfortable having them at this motel. Despite the blinds the glaring articulate light was so strong I had to turn myself around on the bed. Everything is locked down so you need your card key to access it, including the breakfast room. We didn't bother with breakfast, which consisted of some donuts. We just expressed our concerns to the manager and bolted as soon as our kids were up.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r226178545-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -523,6 +763,33 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r215613977-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215613977</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r214378307-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214378307</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Bad Customer Service</t>
+  </si>
+  <si>
+    <t>I reserved a two bed hotel room two weeks in advance and when I got there I was told that there was no more rooms available ....I never received a courtesy call.....I had to settle for a one bed at the last minute ....</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r209036780-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -562,6 +829,36 @@
     <t>BEWARE, far better to sleep in your rental car than enter this motel!  I stayed there 2 nights during OTC, May 5 &amp; 6, when there is NO OTHER HOTEL available in the city..my mistake.  The room was infused with cigarette smoke, smelled like an ashtray, even the drapes had burn holes in them, as well as every solid service; sinks, tub, etc.  There were stains in the fabric of the dining chairs, and broken glass in the walkway to the elevators.  What is even worse, I arrived at midnight and to my horror watched the clerk copy my drivers license and credit card, to file them in a cardboard box behind the desk!  when I objected, he said, "no one knows they are there?" yeah except for every other person who checks in and is subjected to this potential identity theft!  And judging by the type of clientele, who hovered by their open doorways over alcoholic drinks, not the type of patrons who could be trusted with my sensitive information.  REALLY, in this digital age, you need a copy of my information filed in a  box??!!! SHAME ON YOU HOJO!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r201326010-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201326010</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r199469141-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>199469141</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>I was disappointed the room was very clean but the ac unit...</t>
+  </si>
+  <si>
+    <t>I was disappointed the room was very clean but the ac unit in the room was not to par was very uncomfortable and would not cool me an my kids were sleeping with no blankets cause it was hot I think the unit was dirty and was freezing.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r197995152-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -571,9 +868,6 @@
     <t>03/19/2014</t>
   </si>
   <si>
-    <t>March 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r196310998-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -601,12 +895,27 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>In the two weeks I've stayed here the morning coffee and toast was great. In the time spent there my room it was serviced I believe twice and was charged for multiple days where in fact I checked out a day early. When this happened it was because the person staying prior to me left his clothes in a drawer and I put it on the tv so I could use the space in the drawer. I talked to the manager and was refunded the correct amount and I really appreciated this. She was understanding and respectful and this is why I would stay in Howard Johnson again. Thank youMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r192229591-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>192229591</t>
+  </si>
+  <si>
+    <t>01/27/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r191640011-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>191640011</t>
+  </si>
+  <si>
+    <t>01/21/2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r184204896-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -652,6 +961,30 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r177943067-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177943067</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r176546410-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>176546410</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>I was hoping you would not ask</t>
+  </si>
+  <si>
+    <t>Hotel should be leveled and rebuilt. it smells horrible. There is a mold infestation that gave my son and I a terrible allergy reaction. My son had a tennis tournament so he was far from 100%. Biting bugs in the very old beds. I is clear that the moisture smell and mold and mildew are the reason for the bugs everywhere.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r171807098-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -688,6 +1021,21 @@
     <t>07/18/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r167941061-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167941061</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r167940101-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167940101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r167696259-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -736,15 +1084,39 @@
     <t>When we arrived to check in they had double booked rooms, the one room they had left was trashed and they made us wait for them to clean it. The pool is tiny compared to the picture online and the girls at the front desk are rude. After all that hassle we get back to the room our second night and neither of our door keys worked. The next night I went to the office and asked if I could have a plastic knife to make sandwiches in the room and she wouldn't give me one per company policy after all the crap we'd been thru with them. However there was a house keeper named Rachel who kept apologizing for the service and was very friendly and helpful. She should be promoted or something.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r166910260-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166910260</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>The room was perfect for just a place to sleep overnight.    I was happy to see that it had a large fridge, two burner stove and a sink.  If you needed to stay longer, I would say that the room is very small.  The hotel was located right in between the two places that we needed to visit.  We opted out of the breakfast as it only had cold items, although there was a inexpensive nice little resturaunt across the packing lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r166865588-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166865588</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>The room smelled terrible smoky. The electric outlets did not work. The bed on the sheets had cereal on them. There are shady looking people who live here walking around at all hours. This is by far the worst hotel I have ever stayed at. The shower did not work we had to shower in another room</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r166769826-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
     <t>166769826</t>
   </si>
   <si>
-    <t>07/08/2013</t>
-  </si>
-  <si>
     <t>terrible room service</t>
   </si>
   <si>
@@ -772,6 +1144,27 @@
     <t>07/02/2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r163109439-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163109439</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r161437602-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161437602</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r160727818-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -787,9 +1180,6 @@
     <t xml:space="preserve">Friendly desk staff, hotel located near the bowling alleys, breakfast was more than enough variety and the price was the BEST. </t>
   </si>
   <si>
-    <t>May 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r154974139-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -823,6 +1213,33 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r152721167-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152721167</t>
+  </si>
+  <si>
+    <t>02/21/2013</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN</t>
+  </si>
+  <si>
+    <t>PICTURES ON WEB SITE NOT ANYTHING LIKE WHAT IT WAS.  The Kitechen looked like it was from 1990 the room smelled musty.  ROOM SUPER SMALL No table or chairs to eat at the the cable was very very basic the TV was old Tube TV  very outdated Breakfast was horrible basically had to eat out. they microwave the breakfast meat.  GROSS.  the NASA-Clear Lake web sites says that the King size Suite had Juzzi tub then when I checked in I found out that not one room has one.  then get in room tiny with one chair and bed that is it.. the Excercise room was closed and they only had two machines anyway nothing else.  then again you get what you pay for I guess they run a special for a reason.  I have had cheaper hotels with a lot better rooms and updated rooms at that this hotel is stuck in 1985. MoreShow less</t>
+  </si>
+  <si>
+    <t>PICTURES ON WEB SITE NOT ANYTHING LIKE WHAT IT WAS.  The Kitechen looked like it was from 1990 the room smelled musty.  ROOM SUPER SMALL No table or chairs to eat at the the cable was very very basic the TV was old Tube TV  very outdated Breakfast was horrible basically had to eat out. they microwave the breakfast meat.  GROSS.  the NASA-Clear Lake web sites says that the King size Suite had Juzzi tub then when I checked in I found out that not one room has one.  then get in room tiny with one chair and bed that is it.. the Excercise room was closed and they only had two machines anyway nothing else.  then again you get what you pay for I guess they run a special for a reason.  I have had cheaper hotels with a lot better rooms and updated rooms at that this hotel is stuck in 1985. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r152622056-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152622056</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r146742254-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -883,6 +1300,57 @@
     <t>My family and I planned for an over night to show off the new born baby to friends in the Webster/League city areas, and during our visit (as done many times before successfully) I used HOTWIRE to book a room for almost $80. After the family van had problems we got back on the road and of course it was wee hours of the morning. All I wanted to do was shower and stretch out to get a nap before the long ride home. We pull in and go to check in..only to be told that they had cancelled our reservation without so much as a phone call to us to check or let us know. After the shock of being told that I would have to pay for another room and that it was their fault, and to maybe call back monday to see about getting a refund...Then discovering that Hotwire doesn't do refunds. (which we really didn't want...we wanted a room to rest and shower, which we had already paid for after half an hour on the phone arguing with desk dummy, we called it quits and never got a room. As of this posting the manager has been contacted several times over this, and have yet to even get a courtisy call from him saying I got your message. That is THEFT where i come from! If we wanted  to get robbed I would have booked a...My family and I planned for an over night to show off the new born baby to friends in the Webster/League city areas, and during our visit (as done many times before successfully) I used HOTWIRE to book a room for almost $80. After the family van had problems we got back on the road and of course it was wee hours of the morning. All I wanted to do was shower and stretch out to get a nap before the long ride home. We pull in and go to check in..only to be told that they had cancelled our reservation without so much as a phone call to us to check or let us know. After the shock of being told that I would have to pay for another room and that it was their fault, and to maybe call back monday to see about getting a refund...Then discovering that Hotwire doesn't do refunds. (which we really didn't want...we wanted a room to rest and shower, which we had already paid for after half an hour on the phone arguing with desk dummy, we called it quits and never got a room. As of this posting the manager has been contacted several times over this, and have yet to even get a courtisy call from him saying I got your message. That is THEFT where i come from! If we wanted  to get robbed I would have booked a room in the ghetto. Don't go anywhere near these thieves.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r142588930-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142588930</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>our october stay</t>
+  </si>
+  <si>
+    <t>all is good here been here since july 1st and have no complaints.  Top ratings from us!  I am truely satisfied here and would certainly return if we were staying in this area again.  Love the people and the area, the construction is a bit frustrating, but overall, we are pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Bill C, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded October 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2012</t>
+  </si>
+  <si>
+    <t>all is good here been here since july 1st and have no complaints.  Top ratings from us!  I am truely satisfied here and would certainly return if we were staying in this area again.  Love the people and the area, the construction is a bit frustrating, but overall, we are pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r137408594-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>137408594</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Never again and keep your family the hell away from this place.</t>
+  </si>
+  <si>
+    <t>I am 38 years old and by fare this was the nastiest place I have ever been. I was so embarrassed to bring my wife oc 10 years here and my 18 year old son. We where looking for a weekend get a way and it turned in to a nightmare. [--] blood on my sheets, pubic hair on my son bed. And we ask for our money back and all we did was be there 10 min what a fight for money and the Gm was unreal nasty in his email took a month for my money to be refunded omg.never will I ever give any of my money to any wyndham hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Bill C, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded August 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2012</t>
+  </si>
+  <si>
+    <t>I am 38 years old and by fare this was the nastiest place I have ever been. I was so embarrassed to bring my wife oc 10 years here and my 18 year old son. We where looking for a weekend get a way and it turned in to a nightmare. [--] blood on my sheets, pubic hair on my son bed. And we ask for our money back and all we did was be there 10 min what a fight for money and the Gm was unreal nasty in his email took a month for my money to be refunded omg.never will I ever give any of my money to any wyndham hotels.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r137017000-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -901,12 +1369,6 @@
     <t>August 2012</t>
   </si>
   <si>
-    <t>Bill C, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded August 31, 2012</t>
-  </si>
-  <si>
-    <t>Responded August 31, 2012</t>
-  </si>
-  <si>
     <t>When we arrived there were people, apparent full-time residents carrying on, throwing cigarettes off the walkway socializing with their room doors wide open. It was after midnight! I had alerted the staff before I even stepped in building to check in! I told them I didnt want a room anywhere near those folks which seemed to bother them, REALLY??? We checked in after a long trip we wanted nothing more than sleep lo &amp; behold, Blood stained sheets in one bed and short God knows from where hair all inside the other bed!!! Manager Bill was anything but concerned, he kept making reference to being bothered &amp; he was already in his bed. Told us "if we didnt like it we could wait 2-3 days for our refund" or "drive to another hotel in another city"  After speaking with my more rational husband manager Bill Cirlot said he would refund our charges and put us up for free at Hoilday inn Hobby @ Hobby Airport for the evening. Stated Charges on my Credit Card would drop off with the week. Guess What??? Its been 10 days and not a single word from him or anyone else @ Wyndham i've complained to. Funny thing was there were several other guests demanding a refund ahead of me and they charged the hotel room to my card before the would give my our room key. Not happy or the least impressed!!!More</t>
   </si>
   <si>
@@ -959,6 +1421,42 @@
   </si>
   <si>
     <t>I could go on for days about my experience at this motel. My room is not clean, my carpet smells like urine, the refrigerator door doesn't shut, the stove doesn't work, the remote doesn't work, the comforter has cigarette burns in it (supposed to be a non-smoking room), the maid only came once in 8 days (only had 2 towels and no washcloths), the fire alarm has gone off twice for no reason in the middle of the night, the wi-fi has been down for days, and there is a trash can outside my door that is constantly overflowing and the ants have blazed a trail all the way up to the second floor. I still have another week left here so wish me luck. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r131093122-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131093122</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>the rooms are not well clean, the fridge has mold, and the beds smell like old dirt with smoke.  The place where the hotel is located is very good but it could use a lot of repairs.  The breakfast they offer is a scam, it's like you're eating in an old abandoned room without ac and everything has dust.  One of the front desk people is very nice the rest act like they don't care about how you feel or how your room is.  Overall, this hotel needs a lot more improvement so they can get good reviews.  The value isn't recommended, but feel free to experience for yourself.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r130711339-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130711339</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>OMG THIS IS A DUMP</t>
+  </si>
+  <si>
+    <t>I  stayed in thei hotell it was awfull and discusting food in fridge mold everywhere condoms under the bed and the staff rude as can bee the mannager's both of them were terrible and very rude</t>
+  </si>
+  <si>
+    <t>March 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r130421716-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
@@ -1017,7 +1515,40 @@
     <t>I stayed at this hotel for 2 months and the experience was great! The clerks at the front desk were very nice and helpful with anything I needed to make my stay pleasent and welcome. The room was nice being I had a full kitchten and house keeping came by daily to make sure everything was clean and to my liking. The pool was cleaned regulary and the laundry room was always kept tidy and they were very inexpensive. Over all great experience!!</t>
   </si>
   <si>
-    <t>March 2012</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r127983898-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>127983898</t>
+  </si>
+  <si>
+    <t>04/16/2012</t>
+  </si>
+  <si>
+    <t>great weekend trip!</t>
+  </si>
+  <si>
+    <t>I just want to say that i was pleasantly suprised with this hotel. My husband and our two children stayed two nights and had a great stay. We were in Houston visiting family and to check out the local things to do. This hotel was in a perfect place. We were within 10 minutes of everything we wanted to do Kemah,Nasa Space Center, and the mall was only two exits away. The pool was open and very clean. The room was clean and anytime we needed anything extra from the front desk they got it sent to our room. We have stayed in many hotels but this one was great and family friendly which is very important to me especially traveling with two kids under the age of 5. Oh and breakfast was awesome! Even had sausage and eggs!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I just want to say that i was pleasantly suprised with this hotel. My husband and our two children stayed two nights and had a great stay. We were in Houston visiting family and to check out the local things to do. This hotel was in a perfect place. We were within 10 minutes of everything we wanted to do Kemah,Nasa Space Center, and the mall was only two exits away. The pool was open and very clean. The room was clean and anytime we needed anything extra from the front desk they got it sent to our room. We have stayed in many hotels but this one was great and family friendly which is very important to me especially traveling with two kids under the age of 5. Oh and breakfast was awesome! Even had sausage and eggs!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r121246337-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121246337</t>
+  </si>
+  <si>
+    <t>11/30/2011</t>
+  </si>
+  <si>
+    <t>Customer Service Is First</t>
+  </si>
+  <si>
+    <t>The front desk help and the manager were always very helpful and willing to make our stay as comfortable as possible.. W.Greer</t>
+  </si>
+  <si>
+    <t>November 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r120672142-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
@@ -1035,9 +1566,6 @@
     <t>I came early one morning and was able to go to my room. the room was very clean. I am a woman here by my self and I feel very safe. the staff is nice.if you have a problem they come right away to take care of it. It is a family orinanted place.</t>
   </si>
   <si>
-    <t>November 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r119809997-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1594,54 @@
   </si>
   <si>
     <t>To whom it may concern:This hotel is great I have stayed here in an extended stay after having an accident and needing to be close to medical care without high rates,bad mannered staff,unclean rooms and ahost of other things you could think of.The staff provides exceptional service with the manager constantly checking on things,the security is .great the guests look like your good people not the type that would cause you harm .A quiet place,good driving distance to galveston beach,race track medical center etc.Saving you money to spend elsewhere try it you may like it it is not home but close truck parking also .a business person recommendation</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r118251539-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>118251539</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>Couldn't have gone better!</t>
+  </si>
+  <si>
+    <t>I would just like to say that when i was looking for a hotel to stay at i came across Howard Johnson clearlake. The pictures looked great...but when i went to see the reviews i wasn't sure if it was a good idea to stay or concider it. So i called and asked about there pricing and see what else was included in the package. The front desk cleark answered all my questions was very nice and generous. So then i thought well it can't be that bad as there putting it out there. So i went on ahead and booked for 3 nights, and let me tell you it was great. Housekeeping was nice and kind. front staff was helpfull in every which way. I would recommend this hotel for everyone to come too.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>pelicanpath, Front Office Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded October 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2011</t>
+  </si>
+  <si>
+    <t>I would just like to say that when i was looking for a hotel to stay at i came across Howard Johnson clearlake. The pictures looked great...but when i went to see the reviews i wasn't sure if it was a good idea to stay or concider it. So i called and asked about there pricing and see what else was included in the package. The front desk cleark answered all my questions was very nice and generous. So then i thought well it can't be that bad as there putting it out there. So i went on ahead and booked for 3 nights, and let me tell you it was great. Housekeeping was nice and kind. front staff was helpfull in every which way. I would recommend this hotel for everyone to come too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r115906134-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115906134</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Filthy, Old and Overrated!</t>
+  </si>
+  <si>
+    <t>Booked two rooms for my family of four.  Arrived after midnight, or would have left after entering our room.  This hotel advertises that it's been remodeled or renovated, but it has not since it was built.  My husband's a contractor, so take our word for it.  Our rooms were dark, small and smelled of mildew, had paint peeling from the doors, torn lamp shades, orange water running from the faucets, dirt and dried fluid stains on the bathroom walls, doors, tile floors and metal surfaces.  We had two towels for a two-bed unit and our sons had no towels.  The elevators were disgustingly dirty and smelled.  The "cafe" is a converted tiny dark motel room with no coffee, milk, old apples and oranges, with an overflowing garbage can and food and debris on the counter and floor.  This hotel is overrated and we were definitely victims of false advertising.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Booked two rooms for my family of four.  Arrived after midnight, or would have left after entering our room.  This hotel advertises that it's been remodeled or renovated, but it has not since it was built.  My husband's a contractor, so take our word for it.  Our rooms were dark, small and smelled of mildew, had paint peeling from the doors, torn lamp shades, orange water running from the faucets, dirt and dried fluid stains on the bathroom walls, doors, tile floors and metal surfaces.  We had two towels for a two-bed unit and our sons had no towels.  The elevators were disgustingly dirty and smelled.  The "cafe" is a converted tiny dark motel room with no coffee, milk, old apples and oranges, with an overflowing garbage can and food and debris on the counter and floor.  This hotel is overrated and we were definitely victims of false advertising.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r109798375-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
@@ -1140,6 +1716,48 @@
     <t>Over the past three years I have stayed for extended periods at this hotel, and I have had none of the problems described in the reviews. The hotel is well managed and houskeeping does a good job.  All staff will do whatever they can to ensure that you have a pleasant experience.  Sometimes I feel that some people will complain about anything just to get a coupon !  Why is there a review here dated 2004 ?  What is that about ? The hotel has probably changed owners and certainly mangers since then.  This hotel is adjacent to a very large church organisation, and visitors to the church come from all around the World and stay at this hotel without problems, even with the adult facility ( Now closed ) nearby.  Tripadvisor should eradicate the old reviews, and let the hotel be judged by the new managementMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r59831929-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59831929</t>
+  </si>
+  <si>
+    <t>03/29/2010</t>
+  </si>
+  <si>
+    <t>Very nice service and rooms were clean.</t>
+  </si>
+  <si>
+    <t>It was nice but the beds could have been more comfortable. One of my beds in the room where I stayed; looked like it was broken it was not comfortable at all on that bed. The other bed was so so. Staff was very friendly and nice. I don't know if I would recommand this Hotel to my friends I guess if the beds are all the same then I wouldn't but if the beds weren't like my bed I guess i would recommand it.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>HJ16520, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded March 31, 2010</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2010</t>
+  </si>
+  <si>
+    <t>It was nice but the beds could have been more comfortable. One of my beds in the room where I stayed; looked like it was broken it was not comfortable at all on that bed. The other bed was so so. Staff was very friendly and nice. I don't know if I would recommand this Hotel to my friends I guess if the beds are all the same then I wouldn't but if the beds weren't like my bed I guess i would recommand it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r59708845-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>59708845</t>
+  </si>
+  <si>
+    <t>03/28/2010</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>I have stayed there many times and enjoyed each stay. Clean, economical and very friendly staff. I would recomend to any one.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r26817698-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
   </si>
   <si>
@@ -1158,12 +1776,6 @@
     <t>March 2009</t>
   </si>
   <si>
-    <t>HJ16520, General Manager at Studio 6 Houston - Clear Lake, responded to this reviewResponded March 31, 2010</t>
-  </si>
-  <si>
-    <t>Responded March 31, 2010</t>
-  </si>
-  <si>
     <t>I made the mistake of booking this via Hotwire (site picks your hotel) thinking I'd get a decent economy hotel/motel.  I've had luck with Comfort Inn and La Quinta...but for $79/night, this Howard Johnson was HORRIBLE!If you're planning on a boys night out and want to go to a strip club, this may be your place since there is a club next door.  The rooms smell musty and smoky and the beds are beyond ready to be retired (you could hear and feel the rusty sounding bed springs, not a comfortable place for sleeping.)  You couldn't tell until you were standing in the shower that there was mold on the bottom of the shower curtain.  The bedspread and sheets had burn holes.  At $79 it is a total rip off!I've learned my lesson and will happily pay an extra $20 bucks for a Hampton Inn.More</t>
   </si>
   <si>
@@ -1213,6 +1825,39 @@
   </si>
   <si>
     <t>We had always had decent experiences with Howard Johnson hotels. Then we made the mistake of staying at this rat hole.Upon arrival, the room smelled like a cat had peed all over. It didn't take long for us to realize that the smell was coming from the air conditioner. We requested a new room. The only available room was a room that smelled badly of smoke. Since we were traveling with a 2 month old, that was no option. And sleeping in the car wasn't either (though it would have been as comfortable). The manager on duty did try to bring in an air freshener, but unless you spray it up your nose, the smell is not going away. We complained to the hotel at the time of checkout (and got a "sorry" only). We also called the hotel to speak with the General Manager after returning from our trip and got no returned call. In all of our travels, we've endured a lot without ever complaining. In fact, I don't ever recall complaining to a hotel.In this review, I didn't even get to the hard bed, the dirty bathroom, etc. The final straw: not only were we charged once, but they charged us twice for the same room. It took more than 2 months to get one of the charges refunded. If this hotel were free, we still would not go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r8127575-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8127575</t>
+  </si>
+  <si>
+    <t>07/15/2007</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>This motel is a dump.  It's right next to an adult entertainment venue!  Hotels.com messed our reservation up and booked us at this motel by mistake.  When we got there, I knew right away this was not a motel I would even consider staying in. It's very old and not updated adequately. Fortunately, Hotels.com did the right thing and allowed us to cancel our mistaken reservation, as long as we would book another hotel through them at the same time, which I was more than happy to do!</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d277895-r2608605-Studio_6_Houston_Clear_Lake-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>2608605</t>
+  </si>
+  <si>
+    <t>09/28/2004</t>
+  </si>
+  <si>
+    <t>Inside job</t>
+  </si>
+  <si>
+    <t>I do not expect a management response as I no longer have a computer to send it to since it was stolen from a locked room at the hotel and they will not take responsibility for it or the other contents that was stolen.</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +2392,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1767,7 +2412,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -1783,7 +2428,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1792,26 +2437,22 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1824,7 +2465,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1840,54 +2481,48 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1903,34 +2538,34 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1944,7 +2579,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1981,25 +2616,25 @@
         <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2007,7 +2642,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2023,52 +2658,52 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>82</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>83</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>85</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2084,58 +2719,56 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>94</v>
-      </c>
       <c r="O8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2151,60 +2784,48 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>99</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>100</v>
       </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
       <c r="O9" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>95</v>
-      </c>
-      <c r="X9" t="s">
-        <v>96</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2220,62 +2841,54 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
         <v>105</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
         <v>106</v>
       </c>
-      <c r="J10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K10" t="s">
-        <v>108</v>
-      </c>
-      <c r="L10" t="s">
-        <v>109</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
         <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>95</v>
-      </c>
-      <c r="X10" t="s">
-        <v>96</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
@@ -2291,60 +2904,52 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
         <v>111</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>112</v>
       </c>
-      <c r="J11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>113</v>
       </c>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>102</v>
-      </c>
       <c r="O11" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="X11" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="Y11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -2360,7 +2965,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2369,35 +2974,37 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" t="s"/>
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
       <c r="L12" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
         <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
@@ -2407,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -2429,7 +3036,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2438,53 +3045,39 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
         <v>123</v>
       </c>
-      <c r="L13" t="s">
+      <c r="X13" t="s">
         <v>124</v>
       </c>
-      <c r="M13" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>118</v>
-      </c>
-      <c r="X13" t="s">
-        <v>119</v>
-      </c>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -2500,7 +3093,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2509,44 +3102,50 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
         <v>52</v>
       </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
+      <c r="W14" t="s">
+        <v>123</v>
+      </c>
+      <c r="X14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2561,7 +3160,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2570,45 +3169,51 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
-      </c>
-      <c r="K15" t="s">
-        <v>132</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>123</v>
+      </c>
+      <c r="X15" t="s">
+        <v>124</v>
+      </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -2624,7 +3229,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2633,49 +3238,53 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>123</v>
+      </c>
+      <c r="X16" t="s">
+        <v>124</v>
+      </c>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -2691,7 +3300,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2700,44 +3309,54 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" t="s"/>
-      <c r="L17" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
         <v>2</v>
       </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
-      <c r="Y17" t="s"/>
+      <c r="W17" t="s">
+        <v>123</v>
+      </c>
+      <c r="X17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2752,7 +3371,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2761,44 +3380,48 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+        <v>159</v>
+      </c>
+      <c r="K18" t="s">
+        <v>160</v>
+      </c>
+      <c r="L18" t="s">
+        <v>161</v>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
+      <c r="W18" t="s">
+        <v>123</v>
+      </c>
+      <c r="X18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2813,7 +3436,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2822,44 +3445,52 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+      <c r="L19" t="s">
+        <v>141</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
+      <c r="W19" t="s">
+        <v>123</v>
+      </c>
+      <c r="X19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2874,7 +3505,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2883,43 +3514,51 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>155</v>
-      </c>
-      <c r="K20" t="s">
-        <v>156</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
       <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>170</v>
+      </c>
+      <c r="X20" t="s">
+        <v>171</v>
+      </c>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
@@ -2935,7 +3574,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2944,44 +3583,54 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="O21" t="s">
         <v>52</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
+      <c r="W21" t="s">
+        <v>170</v>
+      </c>
+      <c r="X21" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2996,7 +3645,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -3005,47 +3654,51 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J22" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="P22" t="n">
         <v>2</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>170</v>
+      </c>
+      <c r="X22" t="s">
+        <v>171</v>
+      </c>
       <c r="Y22" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23">
@@ -3061,7 +3714,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -3070,27 +3723,29 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>169</v>
       </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>170</v>
-      </c>
       <c r="O23" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>3</v>
@@ -3100,14 +3755,16 @@
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
+      <c r="Y23" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3122,7 +3779,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3131,33 +3788,33 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
         <v>2</v>
-      </c>
-      <c r="R24" t="n">
-        <v>3</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3183,7 +3840,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3192,41 +3849,37 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3234,7 +3887,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -3250,7 +3903,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3259,44 +3912,50 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>182</v>
-      </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
       <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>190</v>
+      </c>
+      <c r="O26" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
         <v>4</v>
       </c>
-      <c r="N26" t="s">
-        <v>183</v>
-      </c>
-      <c r="O26" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -3311,7 +3970,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3320,44 +3979,50 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="J27" t="s">
-        <v>186</v>
-      </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -3372,7 +4037,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3381,49 +4046,53 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="J28" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="O28" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>209</v>
+      </c>
+      <c r="X28" t="s">
+        <v>210</v>
+      </c>
       <c r="Y28" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
@@ -3439,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3448,50 +4117,44 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
-        <v>197</v>
-      </c>
-      <c r="K29" t="s">
-        <v>198</v>
-      </c>
-      <c r="L29" t="s">
-        <v>199</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
         <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
       </c>
       <c r="S29" t="n">
         <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
-      <c r="Y29" t="s">
-        <v>201</v>
-      </c>
+      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -3506,7 +4169,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3515,21 +4178,21 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="J30" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K30" t="s"/>
       <c r="L30" t="s"/>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
@@ -3538,14 +4201,14 @@
         <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3567,7 +4230,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3576,37 +4239,37 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="J31" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3628,7 +4291,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3637,49 +4300,35 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="J32" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s">
-        <v>215</v>
-      </c>
-      <c r="O32" t="s">
-        <v>103</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
@@ -3695,7 +4344,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3704,47 +4353,35 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J33" t="s">
-        <v>218</v>
-      </c>
-      <c r="K33" t="s"/>
+        <v>224</v>
+      </c>
+      <c r="K33" t="s">
+        <v>230</v>
+      </c>
       <c r="L33" t="s">
-        <v>101</v>
+        <v>231</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
-      </c>
-      <c r="N33" t="s">
-        <v>200</v>
-      </c>
-      <c r="O33" t="s">
-        <v>59</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34">
@@ -3760,7 +4397,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3769,44 +4406,44 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="J34" t="s">
-        <v>221</v>
-      </c>
-      <c r="K34" t="s"/>
-      <c r="L34" t="s"/>
+        <v>235</v>
+      </c>
+      <c r="K34" t="s">
+        <v>236</v>
+      </c>
+      <c r="L34" t="s">
+        <v>237</v>
+      </c>
       <c r="M34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
+      <c r="Y34" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3821,7 +4458,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3830,25 +4467,21 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="J35" t="s">
-        <v>224</v>
-      </c>
-      <c r="K35" t="s">
-        <v>225</v>
-      </c>
-      <c r="L35" t="s">
-        <v>226</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3857,23 +4490,21 @@
         <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
-      <c r="Y35" t="s">
-        <v>226</v>
-      </c>
+      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3888,7 +4519,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3897,34 +4528,32 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" t="s">
-        <v>229</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
         <v>1</v>
@@ -3939,7 +4568,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
@@ -3955,7 +4584,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3964,50 +4593,44 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="J37" t="s">
-        <v>234</v>
-      </c>
-      <c r="K37" t="s">
-        <v>235</v>
-      </c>
-      <c r="L37" t="s">
-        <v>236</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
         <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s">
-        <v>237</v>
-      </c>
+      <c r="Y37" t="s"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4022,7 +4645,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4031,37 +4654,37 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="J38" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="K38" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="L38" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>250</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
         <v>2</v>
-      </c>
-      <c r="N38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O38" t="s">
-        <v>59</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>3</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
@@ -4073,7 +4696,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
@@ -4089,7 +4712,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4098,37 +4721,37 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="J39" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="O39" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
         <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4150,7 +4773,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4159,10 +4782,10 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s"/>
@@ -4170,10 +4793,10 @@
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4185,7 +4808,7 @@
         <v>3</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -4211,7 +4834,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4220,41 +4843,41 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="K41" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="L41" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4262,7 +4885,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42">
@@ -4278,7 +4901,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4287,50 +4910,44 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J42" t="s">
-        <v>258</v>
-      </c>
-      <c r="K42" t="s">
-        <v>259</v>
-      </c>
-      <c r="L42" t="s">
-        <v>260</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
-      <c r="Y42" t="s">
-        <v>262</v>
-      </c>
+      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4345,7 +4962,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4354,44 +4971,50 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="J43" t="s">
-        <v>265</v>
-      </c>
-      <c r="K43" t="s"/>
-      <c r="L43" t="s"/>
+        <v>275</v>
+      </c>
+      <c r="K43" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" t="s">
+        <v>277</v>
+      </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="O43" t="s">
         <v>52</v>
       </c>
       <c r="P43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
+      <c r="Y43" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4406,7 +5029,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4415,37 +5038,37 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="J44" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="O44" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
         <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4467,7 +5090,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4476,25 +5099,21 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="J45" t="s">
-        <v>273</v>
-      </c>
-      <c r="K45" t="s">
-        <v>274</v>
-      </c>
-      <c r="L45" t="s">
-        <v>275</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4506,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
@@ -4515,15 +5134,9 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>276</v>
-      </c>
-      <c r="X45" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>278</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4538,7 +5151,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4547,43 +5160,49 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J46" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="K46" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="O46" t="s">
-        <v>59</v>
-      </c>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
-      <c r="S46" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>284</v>
-      </c>
-      <c r="X46" t="s">
-        <v>285</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47">
@@ -4599,7 +5218,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4608,54 +5227,44 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J47" t="s">
-        <v>289</v>
-      </c>
-      <c r="K47" t="s">
+        <v>294</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>290</v>
       </c>
-      <c r="L47" t="s">
-        <v>291</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="s">
-        <v>292</v>
-      </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>1</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>293</v>
-      </c>
-      <c r="X47" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>295</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4670,46 +5279,42 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
+        <v>295</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
         <v>296</v>
       </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" t="s">
-        <v>46</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>297</v>
       </c>
-      <c r="J48" t="s">
-        <v>298</v>
-      </c>
-      <c r="K48" t="s">
-        <v>299</v>
-      </c>
-      <c r="L48" t="s">
-        <v>300</v>
-      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s"/>
       <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>290</v>
+      </c>
+      <c r="O48" t="s">
+        <v>221</v>
+      </c>
+      <c r="P48" t="n">
         <v>4</v>
       </c>
-      <c r="N48" t="s">
-        <v>301</v>
-      </c>
-      <c r="O48" t="s">
-        <v>103</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
       <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
         <v>4</v>
       </c>
-      <c r="R48" t="n">
-        <v>3</v>
-      </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
@@ -4718,15 +5323,9 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>302</v>
-      </c>
-      <c r="X48" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>304</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4741,7 +5340,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4750,49 +5349,49 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J49" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K49" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L49" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="s"/>
-      <c r="O49" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>303</v>
+      </c>
+      <c r="O49" t="s">
+        <v>65</v>
+      </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>310</v>
-      </c>
-      <c r="X49" t="s">
-        <v>311</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50">
@@ -4808,7 +5407,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4817,50 +5416,44 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="J50" t="s">
-        <v>315</v>
-      </c>
-      <c r="K50" t="s">
-        <v>316</v>
-      </c>
-      <c r="L50" t="s">
-        <v>317</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s"/>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="O50" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
-      <c r="Y50" t="s">
-        <v>319</v>
-      </c>
+      <c r="Y50" t="s"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4875,7 +5468,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -4884,50 +5477,44 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="J51" t="s">
-        <v>322</v>
-      </c>
-      <c r="K51" t="s">
-        <v>323</v>
-      </c>
-      <c r="L51" t="s">
-        <v>324</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="K51" t="s"/>
+      <c r="L51" t="s"/>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="O51" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
-      <c r="Y51" t="s">
-        <v>324</v>
-      </c>
+      <c r="Y51" t="s"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4942,7 +5529,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -4951,50 +5538,44 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="J52" t="s">
-        <v>328</v>
-      </c>
-      <c r="K52" t="s">
-        <v>329</v>
-      </c>
-      <c r="L52" t="s">
-        <v>330</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
-      <c r="Y52" t="s">
-        <v>330</v>
-      </c>
+      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -5009,7 +5590,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -5018,41 +5599,41 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="J53" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="K53" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="L53" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="O53" t="s">
-        <v>193</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5060,7 +5641,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54">
@@ -5076,7 +5657,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5085,41 +5666,41 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J54" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="K54" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>326</v>
+      </c>
+      <c r="O54" t="s">
+        <v>143</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
         <v>4</v>
       </c>
-      <c r="N54" t="s">
-        <v>343</v>
-      </c>
-      <c r="O54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5127,7 +5708,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55">
@@ -5143,7 +5724,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5152,22 +5733,20 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="J55" t="s">
-        <v>340</v>
-      </c>
-      <c r="K55" t="s">
-        <v>346</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>347</v>
+        <v>141</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="O55" t="s">
         <v>52</v>
@@ -5176,17 +5755,17 @@
         <v>4</v>
       </c>
       <c r="Q55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5194,7 +5773,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56">
@@ -5210,7 +5789,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5219,30 +5798,30 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="J56" t="s">
-        <v>350</v>
-      </c>
-      <c r="K56" t="s">
-        <v>351</v>
-      </c>
-      <c r="L56" t="s">
-        <v>352</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+      <c r="N56" t="s">
+        <v>326</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
         <v>1</v>
@@ -5256,9 +5835,7 @@
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
-      <c r="Y56" t="s">
-        <v>353</v>
-      </c>
+      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5273,7 +5850,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="G57" t="s">
         <v>45</v>
@@ -5282,54 +5859,44 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="J57" t="s">
-        <v>356</v>
-      </c>
-      <c r="K57" t="s">
-        <v>357</v>
-      </c>
-      <c r="L57" t="s">
-        <v>358</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="O57" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q57" t="n">
         <v>1</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>360</v>
-      </c>
-      <c r="X57" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>362</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5344,7 +5911,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5353,54 +5920,44 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="J58" t="s">
-        <v>365</v>
-      </c>
-      <c r="K58" t="s">
-        <v>366</v>
-      </c>
-      <c r="L58" t="s">
-        <v>367</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="O58" t="s">
         <v>52</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>360</v>
-      </c>
-      <c r="X58" t="s">
-        <v>361</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>369</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5415,7 +5972,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5424,53 +5981,49 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="J59" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="K59" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>376</v>
-      </c>
-      <c r="X59" t="s">
-        <v>377</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
@@ -5486,7 +6039,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
@@ -5495,25 +6048,25 @@
         <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="J60" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="K60" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
       <c r="L60" t="s">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="O60" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -5529,19 +6082,15 @@
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>385</v>
-      </c>
-      <c r="X60" t="s">
-        <v>386</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61">
@@ -5557,7 +6106,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="G61" t="s">
         <v>45</v>
@@ -5566,37 +6115,37 @@
         <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="J61" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="K61" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="L61" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>393</v>
+        <v>326</v>
       </c>
       <c r="O61" t="s">
         <v>52</v>
       </c>
       <c r="P61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
         <v>2</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
@@ -5608,7 +6157,2775 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>354</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>355</v>
+      </c>
+      <c r="J62" t="s">
+        <v>350</v>
+      </c>
+      <c r="K62" t="s">
+        <v>356</v>
+      </c>
+      <c r="L62" t="s">
+        <v>357</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>326</v>
+      </c>
+      <c r="O62" t="s">
+        <v>143</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>358</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>359</v>
+      </c>
+      <c r="J63" t="s">
+        <v>360</v>
+      </c>
+      <c r="K63" t="s">
+        <v>361</v>
+      </c>
+      <c r="L63" t="s">
+        <v>362</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>364</v>
+      </c>
+      <c r="J64" t="s">
+        <v>360</v>
+      </c>
+      <c r="K64" t="s">
+        <v>365</v>
+      </c>
+      <c r="L64" t="s">
+        <v>366</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>326</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>367</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>368</v>
+      </c>
+      <c r="J65" t="s">
+        <v>369</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>370</v>
+      </c>
+      <c r="O65" t="s">
+        <v>143</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>371</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>372</v>
+      </c>
+      <c r="J66" t="s">
+        <v>373</v>
+      </c>
+      <c r="K66" t="s"/>
+      <c r="L66" t="s"/>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>370</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>374</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>375</v>
+      </c>
+      <c r="J67" t="s">
+        <v>376</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s"/>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>370</v>
+      </c>
+      <c r="O67" t="s">
+        <v>221</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>377</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>378</v>
+      </c>
+      <c r="J68" t="s">
+        <v>379</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>380</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>381</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>382</v>
+      </c>
+      <c r="J69" t="s">
+        <v>383</v>
+      </c>
+      <c r="K69" t="s">
+        <v>384</v>
+      </c>
+      <c r="L69" t="s">
+        <v>385</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>380</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>386</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>387</v>
+      </c>
+      <c r="J70" t="s">
+        <v>388</v>
+      </c>
+      <c r="K70" t="s">
+        <v>389</v>
+      </c>
+      <c r="L70" t="s">
+        <v>390</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>391</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>393</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
         <v>394</v>
+      </c>
+      <c r="J71" t="s">
+        <v>395</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>396</v>
+      </c>
+      <c r="O71" t="s">
+        <v>65</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>397</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>398</v>
+      </c>
+      <c r="J72" t="s">
+        <v>399</v>
+      </c>
+      <c r="K72" t="s">
+        <v>400</v>
+      </c>
+      <c r="L72" t="s">
+        <v>401</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>396</v>
+      </c>
+      <c r="O72" t="s">
+        <v>143</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>403</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>404</v>
+      </c>
+      <c r="J73" t="s">
+        <v>405</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>396</v>
+      </c>
+      <c r="O73" t="s">
+        <v>143</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>406</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>407</v>
+      </c>
+      <c r="J74" t="s">
+        <v>408</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s"/>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>409</v>
+      </c>
+      <c r="O74" t="s">
+        <v>143</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>410</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>411</v>
+      </c>
+      <c r="J75" t="s">
+        <v>412</v>
+      </c>
+      <c r="K75" t="s">
+        <v>413</v>
+      </c>
+      <c r="L75" t="s">
+        <v>414</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>409</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>415</v>
+      </c>
+      <c r="X75" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>418</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>419</v>
+      </c>
+      <c r="J76" t="s">
+        <v>420</v>
+      </c>
+      <c r="K76" t="s">
+        <v>421</v>
+      </c>
+      <c r="L76" t="s">
+        <v>422</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>409</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>423</v>
+      </c>
+      <c r="X76" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>426</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>427</v>
+      </c>
+      <c r="J77" t="s">
+        <v>428</v>
+      </c>
+      <c r="K77" t="s">
+        <v>429</v>
+      </c>
+      <c r="L77" t="s">
+        <v>430</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>431</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>432</v>
+      </c>
+      <c r="X77" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>435</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>436</v>
+      </c>
+      <c r="J78" t="s">
+        <v>437</v>
+      </c>
+      <c r="K78" t="s">
+        <v>438</v>
+      </c>
+      <c r="L78" t="s">
+        <v>439</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>440</v>
+      </c>
+      <c r="X78" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>443</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>444</v>
+      </c>
+      <c r="J79" t="s">
+        <v>445</v>
+      </c>
+      <c r="K79" t="s">
+        <v>446</v>
+      </c>
+      <c r="L79" t="s">
+        <v>447</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>448</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>440</v>
+      </c>
+      <c r="X79" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>450</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>451</v>
+      </c>
+      <c r="J80" t="s">
+        <v>452</v>
+      </c>
+      <c r="K80" t="s">
+        <v>453</v>
+      </c>
+      <c r="L80" t="s">
+        <v>454</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>455</v>
+      </c>
+      <c r="O80" t="s">
+        <v>143</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>456</v>
+      </c>
+      <c r="X80" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>459</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>460</v>
+      </c>
+      <c r="J81" t="s">
+        <v>461</v>
+      </c>
+      <c r="K81" t="s">
+        <v>462</v>
+      </c>
+      <c r="L81" t="s">
+        <v>463</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>464</v>
+      </c>
+      <c r="X81" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>467</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>468</v>
+      </c>
+      <c r="J82" t="s">
+        <v>469</v>
+      </c>
+      <c r="K82" t="s">
+        <v>470</v>
+      </c>
+      <c r="L82" t="s">
+        <v>471</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>472</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>473</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>474</v>
+      </c>
+      <c r="J83" t="s">
+        <v>475</v>
+      </c>
+      <c r="K83" t="s">
+        <v>476</v>
+      </c>
+      <c r="L83" t="s">
+        <v>477</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>478</v>
+      </c>
+      <c r="O83" t="s">
+        <v>85</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>479</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>480</v>
+      </c>
+      <c r="J84" t="s">
+        <v>481</v>
+      </c>
+      <c r="K84" t="s">
+        <v>482</v>
+      </c>
+      <c r="L84" t="s">
+        <v>483</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>484</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>486</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>487</v>
+      </c>
+      <c r="J85" t="s">
+        <v>488</v>
+      </c>
+      <c r="K85" t="s">
+        <v>489</v>
+      </c>
+      <c r="L85" t="s">
+        <v>490</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>491</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>492</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>493</v>
+      </c>
+      <c r="J86" t="s">
+        <v>494</v>
+      </c>
+      <c r="K86" t="s">
+        <v>495</v>
+      </c>
+      <c r="L86" t="s">
+        <v>496</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>478</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>497</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>498</v>
+      </c>
+      <c r="J87" t="s">
+        <v>499</v>
+      </c>
+      <c r="K87" t="s">
+        <v>500</v>
+      </c>
+      <c r="L87" t="s">
+        <v>501</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>491</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>503</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>504</v>
+      </c>
+      <c r="J88" t="s">
+        <v>505</v>
+      </c>
+      <c r="K88" t="s">
+        <v>506</v>
+      </c>
+      <c r="L88" t="s">
+        <v>507</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>508</v>
+      </c>
+      <c r="O88" t="s">
+        <v>143</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>509</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>510</v>
+      </c>
+      <c r="J89" t="s">
+        <v>511</v>
+      </c>
+      <c r="K89" t="s">
+        <v>512</v>
+      </c>
+      <c r="L89" t="s">
+        <v>513</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>508</v>
+      </c>
+      <c r="O89" t="s">
+        <v>85</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>514</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>515</v>
+      </c>
+      <c r="J90" t="s">
+        <v>516</v>
+      </c>
+      <c r="K90" t="s">
+        <v>517</v>
+      </c>
+      <c r="L90" t="s">
+        <v>518</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>519</v>
+      </c>
+      <c r="O90" t="s">
+        <v>65</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>520</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>521</v>
+      </c>
+      <c r="J91" t="s">
+        <v>516</v>
+      </c>
+      <c r="K91" t="s">
+        <v>522</v>
+      </c>
+      <c r="L91" t="s">
+        <v>523</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>519</v>
+      </c>
+      <c r="O91" t="s">
+        <v>65</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>524</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>525</v>
+      </c>
+      <c r="J92" t="s">
+        <v>526</v>
+      </c>
+      <c r="K92" t="s">
+        <v>527</v>
+      </c>
+      <c r="L92" t="s">
+        <v>528</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>529</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>530</v>
+      </c>
+      <c r="X92" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>533</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>534</v>
+      </c>
+      <c r="J93" t="s">
+        <v>535</v>
+      </c>
+      <c r="K93" t="s">
+        <v>536</v>
+      </c>
+      <c r="L93" t="s">
+        <v>537</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>538</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>540</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>541</v>
+      </c>
+      <c r="J94" t="s">
+        <v>542</v>
+      </c>
+      <c r="K94" t="s">
+        <v>543</v>
+      </c>
+      <c r="L94" t="s">
+        <v>544</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2</v>
+      </c>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>546</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>547</v>
+      </c>
+      <c r="J95" t="s">
+        <v>548</v>
+      </c>
+      <c r="K95" t="s">
+        <v>549</v>
+      </c>
+      <c r="L95" t="s">
+        <v>550</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>551</v>
+      </c>
+      <c r="O95" t="s">
+        <v>65</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>1</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>552</v>
+      </c>
+      <c r="X95" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>555</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>556</v>
+      </c>
+      <c r="J96" t="s">
+        <v>557</v>
+      </c>
+      <c r="K96" t="s">
+        <v>558</v>
+      </c>
+      <c r="L96" t="s">
+        <v>559</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>560</v>
+      </c>
+      <c r="O96" t="s">
+        <v>65</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>552</v>
+      </c>
+      <c r="X96" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>562</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>563</v>
+      </c>
+      <c r="J97" t="s">
+        <v>564</v>
+      </c>
+      <c r="K97" t="s">
+        <v>565</v>
+      </c>
+      <c r="L97" t="s">
+        <v>566</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>567</v>
+      </c>
+      <c r="O97" t="s">
+        <v>65</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>568</v>
+      </c>
+      <c r="X97" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>571</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>572</v>
+      </c>
+      <c r="J98" t="s">
+        <v>573</v>
+      </c>
+      <c r="K98" t="s">
+        <v>574</v>
+      </c>
+      <c r="L98" t="s">
+        <v>575</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>567</v>
+      </c>
+      <c r="O98" t="s">
+        <v>65</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>576</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>577</v>
+      </c>
+      <c r="J99" t="s">
+        <v>578</v>
+      </c>
+      <c r="K99" t="s">
+        <v>579</v>
+      </c>
+      <c r="L99" t="s">
+        <v>580</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>581</v>
+      </c>
+      <c r="O99" t="s">
+        <v>52</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1</v>
+      </c>
+      <c r="S99" t="n">
+        <v>2</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>568</v>
+      </c>
+      <c r="X99" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>583</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>584</v>
+      </c>
+      <c r="J100" t="s">
+        <v>585</v>
+      </c>
+      <c r="K100" t="s">
+        <v>586</v>
+      </c>
+      <c r="L100" t="s">
+        <v>587</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>588</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>589</v>
+      </c>
+      <c r="X100" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>592</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>593</v>
+      </c>
+      <c r="J101" t="s">
+        <v>594</v>
+      </c>
+      <c r="K101" t="s">
+        <v>595</v>
+      </c>
+      <c r="L101" t="s">
+        <v>596</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>597</v>
+      </c>
+      <c r="O101" t="s">
+        <v>65</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>599</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>600</v>
+      </c>
+      <c r="J102" t="s">
+        <v>601</v>
+      </c>
+      <c r="K102" t="s">
+        <v>602</v>
+      </c>
+      <c r="L102" t="s">
+        <v>603</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>604</v>
+      </c>
+      <c r="O102" t="s">
+        <v>221</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>51208</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>605</v>
+      </c>
+      <c r="G103" t="s">
+        <v>45</v>
+      </c>
+      <c r="H103" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" t="s">
+        <v>606</v>
+      </c>
+      <c r="J103" t="s">
+        <v>607</v>
+      </c>
+      <c r="K103" t="s">
+        <v>608</v>
+      </c>
+      <c r="L103" t="s">
+        <v>609</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
